--- a/app-server/src/main/resources/presentations_responses.xlsx
+++ b/app-server/src/main/resources/presentations_responses.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842DA58B-6EBB-2B4A-BE18-10BF2FED7C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F826F-7D15-794E-9B1B-FEFECD3A995D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACM SAC 2020 presentation submi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6598" uniqueCount="4052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="4051">
   <si>
     <t>Timestamp</t>
   </si>
@@ -12244,9 +12244,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Pennsylvania State University </t>
-  </si>
-  <si>
-    <t>As opposed to traditional software development, agile development encourages requirements change. Given the importance of requirements change management, there is an increasing number of studies discussing this process in both traditional and agile software developments. By examining existing works, we observed that there are many ways to improve the management of agile requirements change. Aiming to addressing this research gap, our study focus on defining a process to handle Agile Requirement Change Management (ARCM), as well as identifying practices to support ARCM process.We performed systematic study to map the main practices applied to manage agile requirements change. Our primary goal was to seek a better understanding of possible directions in the ARCM research, and foster discussions for future work. We identified 3 steps to handle the ARCM process, and grouped 11 distinct agile practices to carry out these steps. Even though agile practices might be, to some extent, for managing requirement change, we were able to identify practical challenges when adopting these practices for Agile Requirements Changes management.</t>
   </si>
   <si>
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RO73y_pCwnU" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
@@ -13947,7 +13944,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -14786,12 +14783,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -15000,7 +15002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -15065,7 +15067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -15130,7 +15132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -15266,7 +15268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -15393,7 +15395,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -15529,7 +15531,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -15585,7 +15587,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -15833,7 +15835,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -15892,7 +15894,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>277</v>
       </c>
@@ -15945,7 +15947,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>288</v>
       </c>
@@ -16013,7 +16015,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>305</v>
       </c>
@@ -16078,7 +16080,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -16146,7 +16148,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>338</v>
       </c>
@@ -16214,7 +16216,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -16279,7 +16281,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>366</v>
       </c>
@@ -16409,7 +16411,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>400</v>
       </c>
@@ -16483,7 +16485,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>419</v>
       </c>
@@ -16536,7 +16538,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -16607,7 +16609,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>447</v>
       </c>
@@ -16678,7 +16680,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>466</v>
       </c>
@@ -16802,7 +16804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>483</v>
       </c>
@@ -17250,7 +17252,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>583</v>
       </c>
@@ -17374,7 +17376,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -17545,7 +17547,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>641</v>
       </c>
@@ -17731,7 +17733,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>680</v>
       </c>
@@ -17802,7 +17804,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>695</v>
       </c>
@@ -17858,7 +17860,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>705</v>
       </c>
@@ -17923,7 +17925,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>719</v>
       </c>
@@ -17991,7 +17993,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>733</v>
       </c>
@@ -18059,7 +18061,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>734</v>
       </c>
@@ -18121,7 +18123,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="388" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>745</v>
       </c>
@@ -18183,7 +18185,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>760</v>
       </c>
@@ -18257,7 +18259,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>777</v>
       </c>
@@ -18331,7 +18333,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>786</v>
       </c>
@@ -18405,7 +18407,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>787</v>
       </c>
@@ -18479,7 +18481,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>788</v>
       </c>
@@ -18612,7 +18614,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>819</v>
       </c>
@@ -18674,7 +18676,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>831</v>
       </c>
@@ -18733,7 +18735,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>842</v>
       </c>
@@ -18798,7 +18800,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>855</v>
       </c>
@@ -18854,7 +18856,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>861</v>
       </c>
@@ -18913,7 +18915,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>874</v>
       </c>
@@ -18975,7 +18977,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>886</v>
       </c>
@@ -19028,7 +19030,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>891</v>
       </c>
@@ -19084,7 +19086,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>904</v>
       </c>
@@ -19140,7 +19142,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>915</v>
       </c>
@@ -19199,7 +19201,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>926</v>
       </c>
@@ -19261,7 +19263,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>939</v>
       </c>
@@ -19335,7 +19337,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>954</v>
       </c>
@@ -19400,7 +19402,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>971</v>
       </c>
@@ -19459,7 +19461,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>983</v>
       </c>
@@ -19527,7 +19529,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>997</v>
       </c>
@@ -19598,7 +19600,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1013</v>
       </c>
@@ -19660,7 +19662,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1028</v>
       </c>
@@ -19725,7 +19727,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1043</v>
       </c>
@@ -19790,7 +19792,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1058</v>
       </c>
@@ -19864,7 +19866,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1076</v>
       </c>
@@ -19920,7 +19922,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1089</v>
       </c>
@@ -19994,7 +19996,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1102</v>
       </c>
@@ -20065,7 +20067,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1118</v>
       </c>
@@ -20139,7 +20141,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1134</v>
       </c>
@@ -20210,7 +20212,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1149</v>
       </c>
@@ -20272,7 +20274,7 @@
         <v>201594643</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1160</v>
       </c>
@@ -20337,7 +20339,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1176</v>
       </c>
@@ -20390,7 +20392,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1186</v>
       </c>
@@ -20449,7 +20451,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1201</v>
       </c>
@@ -20505,7 +20507,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1212</v>
       </c>
@@ -20564,7 +20566,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1223</v>
       </c>
@@ -20629,7 +20631,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1236</v>
       </c>
@@ -20694,7 +20696,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1248</v>
       </c>
@@ -20753,7 +20755,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1261</v>
       </c>
@@ -20821,7 +20823,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1275</v>
       </c>
@@ -20874,7 +20876,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1284</v>
       </c>
@@ -20933,7 +20935,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1298</v>
       </c>
@@ -20998,7 +21000,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1311</v>
       </c>
@@ -21051,7 +21053,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1322</v>
       </c>
@@ -21113,7 +21115,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1334</v>
       </c>
@@ -21175,7 +21177,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1346</v>
       </c>
@@ -21237,7 +21239,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1347</v>
       </c>
@@ -21299,7 +21301,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -21361,7 +21363,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1360</v>
       </c>
@@ -21426,7 +21428,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1374</v>
       </c>
@@ -21482,7 +21484,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1385</v>
       </c>
@@ -21550,7 +21552,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1400</v>
       </c>
@@ -21612,7 +21614,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1401</v>
       </c>
@@ -21671,7 +21673,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1415</v>
       </c>
@@ -21736,7 +21738,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1428</v>
       </c>
@@ -21798,7 +21800,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1442</v>
       </c>
@@ -21869,7 +21871,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1458</v>
       </c>
@@ -21934,7 +21936,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1462</v>
       </c>
@@ -21990,7 +21992,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1475</v>
       </c>
@@ -22064,7 +22066,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1494</v>
       </c>
@@ -22120,7 +22122,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1506</v>
       </c>
@@ -22182,7 +22184,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1517</v>
       </c>
@@ -22253,7 +22255,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1531</v>
       </c>
@@ -22318,7 +22320,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1544</v>
       </c>
@@ -22374,7 +22376,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1553</v>
       </c>
@@ -22436,7 +22438,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1566</v>
       </c>
@@ -22498,7 +22500,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1578</v>
       </c>
@@ -22569,7 +22571,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1594</v>
       </c>
@@ -22628,7 +22630,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1608</v>
       </c>
@@ -22699,7 +22701,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1624</v>
       </c>
@@ -22755,7 +22757,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1634</v>
       </c>
@@ -22814,7 +22816,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1648</v>
       </c>
@@ -22882,7 +22884,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1662</v>
       </c>
@@ -22941,7 +22943,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1674</v>
       </c>
@@ -23000,7 +23002,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1686</v>
       </c>
@@ -23074,7 +23076,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1702</v>
       </c>
@@ -23142,7 +23144,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1715</v>
       </c>
@@ -23195,7 +23197,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1725</v>
       </c>
@@ -23254,7 +23256,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1737</v>
       </c>
@@ -23375,7 +23377,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1761</v>
       </c>
@@ -23434,7 +23436,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1774</v>
       </c>
@@ -23493,7 +23495,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1785</v>
       </c>
@@ -23546,7 +23548,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1797</v>
       </c>
@@ -23608,7 +23610,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1811</v>
       </c>
@@ -23670,7 +23672,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1825</v>
       </c>
@@ -23735,7 +23737,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1838</v>
       </c>
@@ -23803,7 +23805,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1852</v>
       </c>
@@ -23859,7 +23861,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1862</v>
       </c>
@@ -23912,7 +23914,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1871</v>
       </c>
@@ -23974,7 +23976,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1872</v>
       </c>
@@ -24045,7 +24047,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1890</v>
       </c>
@@ -24104,7 +24106,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1900</v>
       </c>
@@ -24169,7 +24171,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1914</v>
       </c>
@@ -24228,7 +24230,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1926</v>
       </c>
@@ -24290,7 +24292,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1940</v>
       </c>
@@ -24355,7 +24357,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" ht="388" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1953</v>
       </c>
@@ -24420,7 +24422,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1965</v>
       </c>
@@ -24479,7 +24481,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1976</v>
       </c>
@@ -24532,7 +24534,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1985</v>
       </c>
@@ -24597,7 +24599,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1999</v>
       </c>
@@ -24653,7 +24655,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2011</v>
       </c>
@@ -24706,7 +24708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2020</v>
       </c>
@@ -24774,7 +24776,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2035</v>
       </c>
@@ -24848,7 +24850,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2051</v>
       </c>
@@ -24916,7 +24918,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2063</v>
       </c>
@@ -24975,7 +24977,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>2076</v>
       </c>
@@ -25028,7 +25030,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2086</v>
       </c>
@@ -25081,7 +25083,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2096</v>
       </c>
@@ -25152,7 +25154,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2111</v>
       </c>
@@ -25217,7 +25219,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2125</v>
       </c>
@@ -25276,7 +25278,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2138</v>
       </c>
@@ -25394,7 +25396,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2162</v>
       </c>
@@ -25450,7 +25452,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2172</v>
       </c>
@@ -25503,7 +25505,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2181</v>
       </c>
@@ -25568,7 +25570,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2194</v>
       </c>
@@ -25621,7 +25623,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2203</v>
       </c>
@@ -25677,7 +25679,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2215</v>
       </c>
@@ -25745,7 +25747,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2229</v>
       </c>
@@ -25810,7 +25812,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2243</v>
       </c>
@@ -25878,7 +25880,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2257</v>
       </c>
@@ -25946,7 +25948,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2271</v>
       </c>
@@ -26070,7 +26072,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2295</v>
       </c>
@@ -26135,7 +26137,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2311</v>
       </c>
@@ -26197,7 +26199,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2325</v>
       </c>
@@ -26262,7 +26264,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2334</v>
       </c>
@@ -26321,7 +26323,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2346</v>
       </c>
@@ -26383,7 +26385,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2358</v>
       </c>
@@ -26457,7 +26459,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2375</v>
       </c>
@@ -26510,7 +26512,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2378</v>
       </c>
@@ -26572,7 +26574,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2383</v>
       </c>
@@ -26637,7 +26639,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2398</v>
       </c>
@@ -26711,7 +26713,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2414</v>
       </c>
@@ -26764,7 +26766,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2419</v>
       </c>
@@ -26832,7 +26834,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2422</v>
       </c>
@@ -26953,7 +26955,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2446</v>
       </c>
@@ -27018,7 +27020,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2459</v>
       </c>
@@ -27071,7 +27073,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2469</v>
       </c>
@@ -27124,7 +27126,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2477</v>
       </c>
@@ -27186,7 +27188,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2480</v>
       </c>
@@ -27245,7 +27247,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2492</v>
       </c>
@@ -27310,7 +27312,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2498</v>
       </c>
@@ -27366,7 +27368,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2501</v>
       </c>
@@ -27431,7 +27433,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2502</v>
       </c>
@@ -27490,7 +27492,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2507</v>
       </c>
@@ -27549,7 +27551,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2517</v>
       </c>
@@ -27608,7 +27610,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2529</v>
       </c>
@@ -27670,7 +27672,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2541</v>
       </c>
@@ -27729,7 +27731,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2551</v>
       </c>
@@ -27797,7 +27799,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2554</v>
       </c>
@@ -27859,7 +27861,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2568</v>
       </c>
@@ -27921,7 +27923,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2570</v>
       </c>
@@ -27977,7 +27979,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>2581</v>
       </c>
@@ -28036,7 +28038,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>2593</v>
       </c>
@@ -28148,7 +28150,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2611</v>
       </c>
@@ -28219,7 +28221,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2627</v>
       </c>
@@ -28293,7 +28295,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2631</v>
       </c>
@@ -28367,7 +28369,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2639</v>
       </c>
@@ -28426,7 +28428,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2652</v>
       </c>
@@ -28488,7 +28490,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2664</v>
       </c>
@@ -28547,7 +28549,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2676</v>
       </c>
@@ -28606,7 +28608,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2682</v>
       </c>
@@ -28671,7 +28673,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2685</v>
       </c>
@@ -28730,7 +28732,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2696</v>
       </c>
@@ -28789,7 +28791,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2707</v>
       </c>
@@ -28848,7 +28850,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2709</v>
       </c>
@@ -28901,7 +28903,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2719</v>
       </c>
@@ -28960,7 +28962,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2723</v>
       </c>
@@ -29025,7 +29027,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2729</v>
       </c>
@@ -29078,7 +29080,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2740</v>
       </c>
@@ -29149,7 +29151,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2755</v>
       </c>
@@ -29205,7 +29207,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2757</v>
       </c>
@@ -29261,7 +29263,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>2768</v>
       </c>
@@ -29317,7 +29319,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>2770</v>
       </c>
@@ -29373,7 +29375,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2772</v>
       </c>
@@ -29429,7 +29431,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2773</v>
       </c>
@@ -29491,7 +29493,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>2776</v>
       </c>
@@ -29547,7 +29549,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2789</v>
       </c>
@@ -29609,7 +29611,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2797</v>
       </c>
@@ -29671,7 +29673,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2809</v>
       </c>
@@ -29733,7 +29735,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2822</v>
       </c>
@@ -29795,7 +29797,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2835</v>
       </c>
@@ -29848,7 +29850,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2844</v>
       </c>
@@ -29904,7 +29906,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2853</v>
       </c>
@@ -29963,7 +29965,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2854</v>
       </c>
@@ -30034,7 +30036,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2859</v>
       </c>
@@ -30090,7 +30092,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2869</v>
       </c>
@@ -30146,7 +30148,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2880</v>
       </c>
@@ -30202,7 +30204,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2892</v>
       </c>
@@ -30258,7 +30260,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2897</v>
       </c>
@@ -30314,7 +30316,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2909</v>
       </c>
@@ -30376,7 +30378,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2913</v>
       </c>
@@ -30450,7 +30452,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2928</v>
       </c>
@@ -30512,7 +30514,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2941</v>
       </c>
@@ -30571,7 +30573,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2955</v>
       </c>
@@ -30642,7 +30644,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2962</v>
       </c>
@@ -30707,7 +30709,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2965</v>
       </c>
@@ -30781,7 +30783,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2981</v>
       </c>
@@ -30852,7 +30854,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2997</v>
       </c>
@@ -30914,7 +30916,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>3009</v>
       </c>
@@ -30970,7 +30972,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>3018</v>
       </c>
@@ -31035,7 +31037,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>3022</v>
       </c>
@@ -31109,7 +31111,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>3039</v>
       </c>
@@ -31168,7 +31170,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>3051</v>
       </c>
@@ -31230,7 +31232,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>3066</v>
       </c>
@@ -31292,7 +31294,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>3077</v>
       </c>
@@ -31410,7 +31412,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>3084</v>
       </c>
@@ -31463,7 +31465,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>3092</v>
       </c>
@@ -31528,7 +31530,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>3105</v>
       </c>
@@ -31590,7 +31592,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>3117</v>
       </c>
@@ -31661,7 +31663,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>3131</v>
       </c>
@@ -31720,7 +31722,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" ht="372" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>3143</v>
       </c>
@@ -31844,7 +31846,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>3162</v>
       </c>
@@ -31903,7 +31905,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3166</v>
       </c>
@@ -31971,7 +31973,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>3174</v>
       </c>
@@ -32024,7 +32026,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3184</v>
       </c>
@@ -32095,7 +32097,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>3199</v>
       </c>
@@ -32151,7 +32153,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>3209</v>
       </c>
@@ -32210,7 +32212,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>3221</v>
       </c>
@@ -32266,7 +32268,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>3223</v>
       </c>
@@ -32328,7 +32330,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>3234</v>
       </c>
@@ -32393,7 +32395,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>3248</v>
       </c>
@@ -32449,7 +32451,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>3249</v>
       </c>
@@ -32511,7 +32513,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>3261</v>
       </c>
@@ -32567,7 +32569,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>3263</v>
       </c>
@@ -32635,7 +32637,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>3270</v>
       </c>
@@ -32691,7 +32693,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>3281</v>
       </c>
@@ -32747,7 +32749,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>3288</v>
       </c>
@@ -32818,7 +32820,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>3302</v>
       </c>
@@ -32877,7 +32879,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>3313</v>
       </c>
@@ -32945,7 +32947,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>3327</v>
       </c>
@@ -33010,7 +33012,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>3333</v>
       </c>
@@ -33066,7 +33068,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>3344</v>
       </c>
@@ -33140,7 +33142,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>3360</v>
       </c>
@@ -33196,7 +33198,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>3369</v>
       </c>
@@ -33258,7 +33260,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>3381</v>
       </c>
@@ -33311,7 +33313,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>3389</v>
       </c>
@@ -33367,7 +33369,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>3400</v>
       </c>
@@ -33423,7 +33425,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>3401</v>
       </c>
@@ -33482,7 +33484,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>3402</v>
       </c>
@@ -33553,7 +33555,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>3419</v>
       </c>
@@ -33621,7 +33623,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>3425</v>
       </c>
@@ -33686,7 +33688,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3437</v>
       </c>
@@ -33760,7 +33762,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>3442</v>
       </c>
@@ -33831,7 +33833,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>3457</v>
       </c>
@@ -33890,7 +33892,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>3468</v>
       </c>
@@ -33946,7 +33948,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" ht="372" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>3477</v>
       </c>
@@ -34005,7 +34007,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>3487</v>
       </c>
@@ -34058,7 +34060,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3498</v>
       </c>
@@ -34111,7 +34113,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>3509</v>
       </c>
@@ -34164,7 +34166,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>3519</v>
       </c>
@@ -34217,7 +34219,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>3529</v>
       </c>
@@ -34291,7 +34293,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>3545</v>
       </c>
@@ -34350,7 +34352,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>3557</v>
       </c>
@@ -34403,7 +34405,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>3567</v>
       </c>
@@ -34449,25 +34451,22 @@
       <c r="O317" s="1" t="s">
         <v>3564</v>
       </c>
-      <c r="P317" t="s">
+      <c r="R317" t="s">
         <v>3570</v>
-      </c>
-      <c r="R317" t="s">
-        <v>3571</v>
       </c>
       <c r="S317" t="s">
         <v>3566</v>
       </c>
       <c r="W317" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>3572</v>
       </c>
-    </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
         <v>3573</v>
-      </c>
-      <c r="B318" t="s">
-        <v>3574</v>
       </c>
       <c r="C318">
         <v>1512</v>
@@ -34476,22 +34475,22 @@
         <v>26</v>
       </c>
       <c r="E318" t="s">
+        <v>3574</v>
+      </c>
+      <c r="F318" t="s">
         <v>3575</v>
       </c>
-      <c r="F318" t="s">
+      <c r="G318" t="s">
+        <v>3573</v>
+      </c>
+      <c r="H318" t="s">
         <v>3576</v>
-      </c>
-      <c r="G318" t="s">
-        <v>3574</v>
-      </c>
-      <c r="H318" t="s">
-        <v>3577</v>
       </c>
       <c r="I318" t="s">
         <v>326</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="K318" t="s">
         <v>554</v>
@@ -34506,24 +34505,24 @@
         <v>43923</v>
       </c>
       <c r="O318" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="P318" t="s">
         <v>3579</v>
       </c>
-      <c r="P318" t="s">
+      <c r="R318" t="s">
         <v>3580</v>
       </c>
-      <c r="R318" t="s">
+      <c r="S318" t="s">
         <v>3581</v>
       </c>
-      <c r="S318" t="s">
+    </row>
+    <row r="319" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>3582</v>
       </c>
-    </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
         <v>3583</v>
-      </c>
-      <c r="B319" t="s">
-        <v>3584</v>
       </c>
       <c r="C319">
         <v>1808</v>
@@ -34532,22 +34531,22 @@
         <v>26</v>
       </c>
       <c r="E319" t="s">
+        <v>3584</v>
+      </c>
+      <c r="F319" t="s">
         <v>3585</v>
       </c>
-      <c r="F319" t="s">
+      <c r="G319" t="s">
+        <v>3583</v>
+      </c>
+      <c r="H319" t="s">
         <v>3586</v>
-      </c>
-      <c r="G319" t="s">
-        <v>3584</v>
-      </c>
-      <c r="H319" t="s">
-        <v>3587</v>
       </c>
       <c r="I319" t="s">
         <v>1390</v>
       </c>
       <c r="J319" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="K319" t="s">
         <v>224</v>
@@ -34556,39 +34555,39 @@
         <v>589</v>
       </c>
       <c r="M319" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="N319" s="2">
         <v>43922</v>
       </c>
       <c r="O319" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="Q319" s="1" t="s">
         <v>3589</v>
       </c>
-      <c r="Q319" s="1" t="s">
+      <c r="R319" t="s">
         <v>3590</v>
       </c>
-      <c r="R319" t="s">
+      <c r="S319" t="s">
         <v>3591</v>
       </c>
-      <c r="S319" t="s">
+      <c r="U319" t="s">
         <v>3592</v>
       </c>
-      <c r="U319" t="s">
+      <c r="V319" t="s">
         <v>3593</v>
       </c>
-      <c r="V319" t="s">
+      <c r="X319" t="s">
         <v>3594</v>
       </c>
-      <c r="X319" t="s">
+    </row>
+    <row r="320" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>3595</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+      <c r="B320" t="s">
         <v>3596</v>
-      </c>
-      <c r="B320" t="s">
-        <v>3597</v>
       </c>
       <c r="C320">
         <v>1521</v>
@@ -34597,22 +34596,22 @@
         <v>26</v>
       </c>
       <c r="E320" t="s">
+        <v>3597</v>
+      </c>
+      <c r="F320" t="s">
         <v>3598</v>
       </c>
-      <c r="F320" t="s">
+      <c r="G320" t="s">
+        <v>3596</v>
+      </c>
+      <c r="H320" t="s">
         <v>3599</v>
-      </c>
-      <c r="G320" t="s">
-        <v>3597</v>
-      </c>
-      <c r="H320" t="s">
-        <v>3600</v>
       </c>
       <c r="I320" t="s">
         <v>2116</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="K320" t="s">
         <v>1584</v>
@@ -34621,45 +34620,45 @@
         <v>1584</v>
       </c>
       <c r="M320" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="N320" s="2">
         <v>43921</v>
       </c>
       <c r="O320" t="s">
+        <v>3602</v>
+      </c>
+      <c r="P320" t="s">
         <v>3603</v>
       </c>
-      <c r="P320" t="s">
+      <c r="R320" t="s">
         <v>3604</v>
       </c>
-      <c r="R320" t="s">
+      <c r="S320" t="s">
         <v>3605</v>
       </c>
-      <c r="S320" t="s">
+      <c r="T320" t="s">
         <v>3606</v>
       </c>
-      <c r="T320" t="s">
+      <c r="U320" t="s">
         <v>3607</v>
       </c>
-      <c r="U320" t="s">
+      <c r="V320" t="s">
         <v>3608</v>
       </c>
-      <c r="V320" t="s">
+      <c r="W320" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="W320" s="1" t="s">
+      <c r="X320" t="s">
         <v>3610</v>
       </c>
-      <c r="X320" t="s">
+    </row>
+    <row r="321" spans="1:24" ht="255" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>3611</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+      <c r="B321" t="s">
         <v>3612</v>
-      </c>
-      <c r="B321" t="s">
-        <v>3613</v>
       </c>
       <c r="C321">
         <v>1650</v>
@@ -34668,22 +34667,22 @@
         <v>26</v>
       </c>
       <c r="E321" t="s">
+        <v>3613</v>
+      </c>
+      <c r="F321" t="s">
         <v>3614</v>
       </c>
-      <c r="F321" t="s">
+      <c r="G321" t="s">
+        <v>3612</v>
+      </c>
+      <c r="H321" t="s">
         <v>3615</v>
-      </c>
-      <c r="G321" t="s">
-        <v>3613</v>
-      </c>
-      <c r="H321" t="s">
-        <v>3616</v>
       </c>
       <c r="I321" t="s">
         <v>2116</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="K321" t="s">
         <v>1407</v>
@@ -34698,27 +34697,27 @@
         <v>43923</v>
       </c>
       <c r="O321" t="s">
+        <v>3617</v>
+      </c>
+      <c r="P321" t="s">
         <v>3618</v>
       </c>
-      <c r="P321" t="s">
+      <c r="Q321" t="s">
         <v>3619</v>
       </c>
-      <c r="Q321" t="s">
+      <c r="R321" t="s">
         <v>3620</v>
       </c>
-      <c r="R321" t="s">
+      <c r="S321" t="s">
         <v>3621</v>
       </c>
-      <c r="S321" t="s">
+    </row>
+    <row r="322" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>3622</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+      <c r="B322" t="s">
         <v>3623</v>
-      </c>
-      <c r="B322" t="s">
-        <v>3624</v>
       </c>
       <c r="C322">
         <v>1533</v>
@@ -34727,22 +34726,22 @@
         <v>26</v>
       </c>
       <c r="E322" t="s">
+        <v>3624</v>
+      </c>
+      <c r="F322" t="s">
         <v>3625</v>
       </c>
-      <c r="F322" t="s">
+      <c r="G322" t="s">
         <v>3626</v>
       </c>
-      <c r="G322" t="s">
+      <c r="H322" t="s">
         <v>3627</v>
-      </c>
-      <c r="H322" t="s">
-        <v>3628</v>
       </c>
       <c r="I322" t="s">
         <v>109</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="K322" t="s">
         <v>1932</v>
@@ -34757,42 +34756,42 @@
         <v>43922</v>
       </c>
       <c r="O322" t="s">
+        <v>3629</v>
+      </c>
+      <c r="P322" t="s">
         <v>3630</v>
       </c>
-      <c r="P322" t="s">
+      <c r="Q322" t="s">
         <v>3631</v>
       </c>
-      <c r="Q322" t="s">
+      <c r="R322" t="s">
         <v>3632</v>
       </c>
-      <c r="R322" t="s">
+      <c r="S322" t="s">
         <v>3633</v>
       </c>
-      <c r="S322" t="s">
+      <c r="T322" t="s">
         <v>3634</v>
       </c>
-      <c r="T322" t="s">
+      <c r="U322" t="s">
         <v>3635</v>
       </c>
-      <c r="U322" t="s">
+      <c r="V322" t="s">
         <v>3636</v>
       </c>
-      <c r="V322" t="s">
+      <c r="W322" s="1" t="s">
         <v>3637</v>
       </c>
-      <c r="W322" s="1" t="s">
+      <c r="X322" t="s">
         <v>3638</v>
       </c>
-      <c r="X322" t="s">
+    </row>
+    <row r="323" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>3639</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
         <v>3640</v>
-      </c>
-      <c r="B323" t="s">
-        <v>3641</v>
       </c>
       <c r="C323">
         <v>1078</v>
@@ -34801,22 +34800,22 @@
         <v>26</v>
       </c>
       <c r="E323" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F323" t="s">
         <v>3642</v>
       </c>
-      <c r="F323" t="s">
+      <c r="G323" t="s">
+        <v>3640</v>
+      </c>
+      <c r="H323" t="s">
         <v>3643</v>
-      </c>
-      <c r="G323" t="s">
-        <v>3641</v>
-      </c>
-      <c r="H323" t="s">
-        <v>3644</v>
       </c>
       <c r="I323" t="s">
         <v>109</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="K323" t="s">
         <v>454</v>
@@ -34831,24 +34830,24 @@
         <v>43894</v>
       </c>
       <c r="O323" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="R323" t="s">
         <v>3646</v>
       </c>
-      <c r="R323" t="s">
+      <c r="S323" t="s">
         <v>3647</v>
       </c>
-      <c r="S323" t="s">
+      <c r="U323" t="s">
         <v>3648</v>
       </c>
-      <c r="U323" t="s">
+      <c r="V323" t="s">
         <v>3649</v>
       </c>
-      <c r="V323" t="s">
+    </row>
+    <row r="324" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>3650</v>
-      </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>3651</v>
       </c>
       <c r="B324" t="s">
         <v>1507</v>
@@ -34875,7 +34874,7 @@
         <v>175</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="K324" t="s">
         <v>393</v>
@@ -34908,9 +34907,9 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B325" t="s">
         <v>3040</v>
@@ -34958,18 +34957,18 @@
         <v>3047</v>
       </c>
       <c r="Q325" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="R325" t="s">
         <v>3049</v>
       </c>
       <c r="S325" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" ht="170" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>3655</v>
-      </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>3656</v>
       </c>
       <c r="B326" t="s">
         <v>3443</v>
@@ -34981,7 +34980,7 @@
         <v>26</v>
       </c>
       <c r="E326" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="F326" t="s">
         <v>3445</v>
@@ -34996,7 +34995,7 @@
         <v>896</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="K326" t="s">
         <v>2575</v>
@@ -35011,16 +35010,16 @@
         <v>43923</v>
       </c>
       <c r="O326" t="s">
+        <v>3658</v>
+      </c>
+      <c r="P326" t="s">
         <v>3659</v>
       </c>
-      <c r="P326" t="s">
+      <c r="R326" t="s">
         <v>3660</v>
       </c>
-      <c r="R326" t="s">
+      <c r="S326" t="s">
         <v>3661</v>
-      </c>
-      <c r="S326" t="s">
-        <v>3662</v>
       </c>
       <c r="T326" t="s">
         <v>3452</v>
@@ -35038,9 +35037,9 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B327" t="s">
         <v>2347</v>
@@ -35067,7 +35066,7 @@
         <v>326</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="K327" t="s">
         <v>1932</v>
@@ -35076,7 +35075,7 @@
         <v>1932</v>
       </c>
       <c r="M327" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="N327" s="2">
         <v>43922</v>
@@ -35091,18 +35090,18 @@
         <v>2354</v>
       </c>
       <c r="R327" t="s">
+        <v>3665</v>
+      </c>
+      <c r="S327" t="s">
         <v>3666</v>
-      </c>
-      <c r="S327" t="s">
-        <v>3667</v>
       </c>
       <c r="U327" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="B328" t="s">
         <v>2347</v>
@@ -35129,7 +35128,7 @@
         <v>326</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="K328" t="s">
         <v>1932</v>
@@ -35156,18 +35155,18 @@
         <v>2355</v>
       </c>
       <c r="S328" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="U328" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B329" t="s">
         <v>3670</v>
-      </c>
-      <c r="B329" t="s">
-        <v>3671</v>
       </c>
       <c r="C329">
         <v>1246</v>
@@ -35176,28 +35175,28 @@
         <v>26</v>
       </c>
       <c r="E329" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F329" t="s">
         <v>3672</v>
       </c>
-      <c r="F329" t="s">
+      <c r="G329" t="s">
+        <v>3670</v>
+      </c>
+      <c r="H329" t="s">
         <v>3673</v>
-      </c>
-      <c r="G329" t="s">
-        <v>3671</v>
-      </c>
-      <c r="H329" t="s">
-        <v>3674</v>
       </c>
       <c r="I329" t="s">
         <v>78</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="K329" t="s">
         <v>111</v>
       </c>
       <c r="L329" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="M329" t="s">
         <v>107</v>
@@ -35206,33 +35205,33 @@
         <v>43923</v>
       </c>
       <c r="O329" t="s">
+        <v>3676</v>
+      </c>
+      <c r="P329" t="s">
         <v>3677</v>
       </c>
-      <c r="P329" t="s">
+      <c r="Q329" t="s">
         <v>3678</v>
       </c>
-      <c r="Q329" t="s">
+      <c r="R329" t="s">
         <v>3679</v>
       </c>
-      <c r="R329" t="s">
+      <c r="S329" t="s">
         <v>3680</v>
       </c>
-      <c r="S329" t="s">
+      <c r="V329" t="s">
         <v>3681</v>
       </c>
-      <c r="V329" t="s">
+      <c r="X329" t="s">
         <v>3682</v>
       </c>
-      <c r="X329" t="s">
+    </row>
+    <row r="330" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>3683</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="B330" t="s">
         <v>3684</v>
-      </c>
-      <c r="B330" t="s">
-        <v>3685</v>
       </c>
       <c r="C330">
         <v>1178</v>
@@ -35241,22 +35240,22 @@
         <v>26</v>
       </c>
       <c r="E330" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F330" t="s">
         <v>3686</v>
       </c>
-      <c r="F330" t="s">
+      <c r="G330" t="s">
+        <v>3684</v>
+      </c>
+      <c r="H330" t="s">
         <v>3687</v>
-      </c>
-      <c r="G330" t="s">
-        <v>3685</v>
-      </c>
-      <c r="H330" t="s">
-        <v>3688</v>
       </c>
       <c r="I330" t="s">
         <v>63</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="K330" t="s">
         <v>224</v>
@@ -35265,36 +35264,36 @@
         <v>225</v>
       </c>
       <c r="M330" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="N330" s="2">
         <v>43922</v>
       </c>
       <c r="O330" t="s">
+        <v>3690</v>
+      </c>
+      <c r="R330" t="s">
         <v>3691</v>
       </c>
-      <c r="R330" t="s">
+      <c r="S330" t="s">
         <v>3692</v>
       </c>
-      <c r="S330" t="s">
+      <c r="U330" t="s">
         <v>3693</v>
       </c>
-      <c r="U330" t="s">
+      <c r="W330" t="s">
         <v>3694</v>
       </c>
-      <c r="W330" t="s">
+      <c r="X330" t="s">
         <v>3695</v>
       </c>
-      <c r="X330" t="s">
+    </row>
+    <row r="331" spans="1:24" ht="340" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>3696</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="B331" t="s">
         <v>3697</v>
-      </c>
-      <c r="B331" t="s">
-        <v>3698</v>
       </c>
       <c r="C331">
         <v>1593</v>
@@ -35303,22 +35302,22 @@
         <v>26</v>
       </c>
       <c r="E331" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F331" t="s">
         <v>3699</v>
       </c>
-      <c r="F331" t="s">
+      <c r="G331" t="s">
+        <v>3697</v>
+      </c>
+      <c r="H331" t="s">
         <v>3700</v>
-      </c>
-      <c r="G331" t="s">
-        <v>3698</v>
-      </c>
-      <c r="H331" t="s">
-        <v>3701</v>
       </c>
       <c r="I331" t="s">
         <v>109</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="K331" t="s">
         <v>373</v>
@@ -35333,30 +35332,30 @@
         <v>43923</v>
       </c>
       <c r="O331" t="s">
+        <v>3702</v>
+      </c>
+      <c r="P331" t="s">
         <v>3703</v>
       </c>
-      <c r="P331" t="s">
+      <c r="R331" t="s">
         <v>3704</v>
       </c>
-      <c r="R331" t="s">
+      <c r="S331" t="s">
         <v>3705</v>
       </c>
-      <c r="S331" t="s">
+      <c r="T331" t="s">
         <v>3706</v>
       </c>
-      <c r="T331" t="s">
+      <c r="W331" t="s">
         <v>3707</v>
       </c>
-      <c r="W331" t="s">
+      <c r="X331" t="s">
         <v>3708</v>
       </c>
-      <c r="X331" t="s">
+    </row>
+    <row r="332" spans="1:24" ht="255" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>3709</v>
-      </c>
-    </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>3710</v>
       </c>
       <c r="B332" t="s">
         <v>1716</v>
@@ -35383,7 +35382,7 @@
         <v>528</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="K332" t="s">
         <v>270</v>
@@ -35392,27 +35391,27 @@
         <v>270</v>
       </c>
       <c r="M332" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="N332" s="2">
         <v>43921</v>
       </c>
       <c r="O332" t="s">
+        <v>3712</v>
+      </c>
+      <c r="P332" t="s">
         <v>3713</v>
       </c>
-      <c r="P332" t="s">
+      <c r="R332" t="s">
         <v>3714</v>
-      </c>
-      <c r="R332" t="s">
-        <v>3715</v>
       </c>
       <c r="S332" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="B333" t="s">
         <v>1463</v>
@@ -35433,7 +35432,7 @@
         <v>1466</v>
       </c>
       <c r="H333" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="I333" t="s">
         <v>268</v>
@@ -35445,7 +35444,7 @@
         <v>794</v>
       </c>
       <c r="L333" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="M333" t="s">
         <v>1470</v>
@@ -35463,15 +35462,15 @@
         <v>1473</v>
       </c>
       <c r="S333" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>3719</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
         <v>3720</v>
-      </c>
-      <c r="B334" t="s">
-        <v>3721</v>
       </c>
       <c r="C334">
         <v>1762</v>
@@ -35480,22 +35479,22 @@
         <v>26</v>
       </c>
       <c r="E334" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F334" t="s">
         <v>3722</v>
       </c>
-      <c r="F334" t="s">
+      <c r="G334" t="s">
+        <v>3720</v>
+      </c>
+      <c r="H334" t="s">
         <v>3723</v>
       </c>
-      <c r="G334" t="s">
-        <v>3721</v>
-      </c>
-      <c r="H334" t="s">
+      <c r="I334" t="s">
         <v>3724</v>
       </c>
-      <c r="I334" t="s">
+      <c r="J334" s="1" t="s">
         <v>3725</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>3726</v>
       </c>
       <c r="K334" t="s">
         <v>554</v>
@@ -35510,33 +35509,33 @@
         <v>43923</v>
       </c>
       <c r="O334" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="P334" t="s">
         <v>3727</v>
       </c>
-      <c r="P334" t="s">
+      <c r="Q334" s="1" t="s">
         <v>3728</v>
       </c>
-      <c r="Q334" s="1" t="s">
+      <c r="R334" t="s">
         <v>3729</v>
       </c>
-      <c r="R334" t="s">
+      <c r="S334" t="s">
         <v>3730</v>
       </c>
-      <c r="S334" t="s">
+      <c r="T334" t="s">
         <v>3731</v>
       </c>
-      <c r="T334" t="s">
+      <c r="V334" t="s">
         <v>3732</v>
       </c>
-      <c r="V334" t="s">
+      <c r="W334" t="s">
         <v>3733</v>
       </c>
-      <c r="W334" t="s">
+    </row>
+    <row r="335" spans="1:24" ht="289" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
         <v>3734</v>
-      </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>3735</v>
       </c>
       <c r="B335" t="s">
         <v>2777</v>
@@ -35587,12 +35586,12 @@
         <v>2787</v>
       </c>
       <c r="S335" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>3736</v>
-      </c>
-    </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>3737</v>
       </c>
       <c r="B336" t="s">
         <v>41</v>
@@ -35619,13 +35618,13 @@
         <v>30</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="K336" t="s">
         <v>47</v>
       </c>
       <c r="L336" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="M336" t="s">
         <v>556</v>
@@ -35634,7 +35633,7 @@
         <v>43922</v>
       </c>
       <c r="O336" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="P336" t="s">
         <v>50</v>
@@ -35646,7 +35645,7 @@
         <v>52</v>
       </c>
       <c r="S336" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="U336" t="s">
         <v>54</v>
@@ -35655,15 +35654,15 @@
         <v>55</v>
       </c>
       <c r="W336" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="X336" t="s">
         <v>3742</v>
       </c>
-      <c r="X336" t="s">
+    </row>
+    <row r="337" spans="1:24" ht="323" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>3743</v>
-      </c>
-    </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>3744</v>
       </c>
       <c r="B337" t="s">
         <v>154</v>
@@ -35675,7 +35674,7 @@
         <v>26</v>
       </c>
       <c r="E337" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="F337" t="s">
         <v>156</v>
@@ -35684,13 +35683,13 @@
         <v>154</v>
       </c>
       <c r="H337" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="I337" t="s">
         <v>158</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="K337" t="s">
         <v>160</v>
@@ -35705,22 +35704,22 @@
         <v>43924</v>
       </c>
       <c r="O337" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="P337" t="s">
         <v>164</v>
       </c>
       <c r="Q337" t="s">
+        <v>3748</v>
+      </c>
+      <c r="R337" t="s">
         <v>3749</v>
       </c>
-      <c r="R337" t="s">
+      <c r="S337" t="s">
         <v>3750</v>
       </c>
-      <c r="S337" t="s">
+      <c r="U337" t="s">
         <v>3751</v>
-      </c>
-      <c r="U337" t="s">
-        <v>3752</v>
       </c>
       <c r="V337" t="s">
         <v>169</v>
@@ -35729,12 +35728,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B338" t="s">
         <v>3753</v>
-      </c>
-      <c r="B338" t="s">
-        <v>3754</v>
       </c>
       <c r="C338">
         <v>1514</v>
@@ -35743,22 +35742,22 @@
         <v>26</v>
       </c>
       <c r="E338" t="s">
+        <v>3754</v>
+      </c>
+      <c r="F338" t="s">
         <v>3755</v>
       </c>
-      <c r="F338" t="s">
+      <c r="G338" t="s">
+        <v>3753</v>
+      </c>
+      <c r="H338" t="s">
         <v>3756</v>
       </c>
-      <c r="G338" t="s">
-        <v>3754</v>
-      </c>
-      <c r="H338" t="s">
+      <c r="I338" t="s">
         <v>3757</v>
       </c>
-      <c r="I338" t="s">
+      <c r="J338" s="1" t="s">
         <v>3758</v>
-      </c>
-      <c r="J338" s="1" t="s">
-        <v>3759</v>
       </c>
       <c r="K338" t="s">
         <v>1584</v>
@@ -35767,45 +35766,45 @@
         <v>1584</v>
       </c>
       <c r="M338" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="N338" s="2">
         <v>43921</v>
       </c>
       <c r="O338" t="s">
+        <v>3760</v>
+      </c>
+      <c r="P338" t="s">
         <v>3761</v>
       </c>
-      <c r="P338" t="s">
+      <c r="Q338" t="s">
         <v>3762</v>
       </c>
-      <c r="Q338" t="s">
+      <c r="R338" t="s">
         <v>3763</v>
       </c>
-      <c r="R338" t="s">
+      <c r="S338" t="s">
         <v>3764</v>
       </c>
-      <c r="S338" t="s">
+      <c r="T338" t="s">
         <v>3765</v>
       </c>
-      <c r="T338" t="s">
+      <c r="U338" t="s">
         <v>3766</v>
       </c>
-      <c r="U338" t="s">
+      <c r="V338" t="s">
         <v>3767</v>
       </c>
-      <c r="V338" t="s">
+      <c r="W338" t="s">
         <v>3768</v>
       </c>
-      <c r="W338" t="s">
+      <c r="X338" t="s">
         <v>3769</v>
       </c>
-      <c r="X338" t="s">
+    </row>
+    <row r="339" spans="1:24" ht="404" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>3770</v>
-      </c>
-    </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>3771</v>
       </c>
       <c r="B339" t="s">
         <v>1507</v>
@@ -35820,7 +35819,7 @@
         <v>1508</v>
       </c>
       <c r="F339" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="G339" t="s">
         <v>1507</v>
@@ -35832,7 +35831,7 @@
         <v>175</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="K339" t="s">
         <v>393</v>
@@ -35865,12 +35864,12 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B340" t="s">
         <v>3774</v>
-      </c>
-      <c r="B340" t="s">
-        <v>3775</v>
       </c>
       <c r="C340">
         <v>1617</v>
@@ -35879,13 +35878,13 @@
         <v>26</v>
       </c>
       <c r="E340" t="s">
+        <v>3775</v>
+      </c>
+      <c r="F340" t="s">
         <v>3776</v>
       </c>
-      <c r="F340" t="s">
-        <v>3777</v>
-      </c>
       <c r="G340" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="H340" t="s">
         <v>1667</v>
@@ -35894,7 +35893,7 @@
         <v>1856</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="K340" t="s">
         <v>542</v>
@@ -35909,30 +35908,30 @@
         <v>43921</v>
       </c>
       <c r="O340" t="s">
+        <v>3778</v>
+      </c>
+      <c r="P340" t="s">
         <v>3779</v>
       </c>
-      <c r="P340" t="s">
+      <c r="Q340" s="1" t="s">
         <v>3780</v>
       </c>
-      <c r="Q340" s="1" t="s">
+      <c r="R340" t="s">
         <v>3781</v>
       </c>
-      <c r="R340" t="s">
+      <c r="S340" t="s">
         <v>3782</v>
       </c>
-      <c r="S340" t="s">
+      <c r="U340" t="s">
         <v>3783</v>
       </c>
-      <c r="U340" t="s">
+    </row>
+    <row r="341" spans="1:24" ht="372" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>3784</v>
       </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+      <c r="B341" t="s">
         <v>3785</v>
-      </c>
-      <c r="B341" t="s">
-        <v>3786</v>
       </c>
       <c r="C341">
         <v>1555</v>
@@ -35941,63 +35940,63 @@
         <v>42</v>
       </c>
       <c r="E341" t="s">
+        <v>3786</v>
+      </c>
+      <c r="F341" t="s">
         <v>3787</v>
       </c>
-      <c r="F341" t="s">
+      <c r="G341" t="s">
         <v>3788</v>
       </c>
-      <c r="G341" t="s">
+      <c r="H341" t="s">
         <v>3789</v>
-      </c>
-      <c r="H341" t="s">
-        <v>3790</v>
       </c>
       <c r="I341" t="s">
         <v>282</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="K341" t="s">
         <v>517</v>
       </c>
       <c r="L341" t="s">
+        <v>3791</v>
+      </c>
+      <c r="M341" t="s">
         <v>3792</v>
-      </c>
-      <c r="M341" t="s">
-        <v>3793</v>
       </c>
       <c r="N341" s="2">
         <v>43922</v>
       </c>
       <c r="O341" t="s">
+        <v>3793</v>
+      </c>
+      <c r="P341" t="s">
         <v>3794</v>
       </c>
-      <c r="P341" t="s">
+      <c r="Q341" t="s">
         <v>3795</v>
       </c>
-      <c r="Q341" t="s">
+      <c r="R341" t="s">
         <v>3796</v>
       </c>
-      <c r="R341" t="s">
+      <c r="S341" t="s">
         <v>3797</v>
       </c>
-      <c r="S341" t="s">
+      <c r="T341" t="s">
         <v>3798</v>
       </c>
-      <c r="T341" t="s">
+      <c r="U341" t="s">
         <v>3799</v>
       </c>
-      <c r="U341" t="s">
+    </row>
+    <row r="342" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>3800</v>
       </c>
-    </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+      <c r="B342" t="s">
         <v>3801</v>
-      </c>
-      <c r="B342" t="s">
-        <v>3802</v>
       </c>
       <c r="C342">
         <v>1190</v>
@@ -36006,22 +36005,22 @@
         <v>26</v>
       </c>
       <c r="E342" t="s">
+        <v>3802</v>
+      </c>
+      <c r="F342" t="s">
         <v>3803</v>
       </c>
-      <c r="F342" t="s">
+      <c r="G342" t="s">
         <v>3804</v>
       </c>
-      <c r="G342" t="s">
+      <c r="H342" t="s">
         <v>3805</v>
-      </c>
-      <c r="H342" t="s">
-        <v>3806</v>
       </c>
       <c r="I342" t="s">
         <v>931</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="K342" t="s">
         <v>194</v>
@@ -36036,30 +36035,30 @@
         <v>43922</v>
       </c>
       <c r="O342" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="Q342" t="s">
         <v>3808</v>
       </c>
-      <c r="Q342" t="s">
+      <c r="R342" t="s">
         <v>3809</v>
       </c>
-      <c r="R342" t="s">
+      <c r="S342" t="s">
         <v>3810</v>
       </c>
-      <c r="S342" t="s">
+      <c r="T342" t="s">
         <v>3811</v>
       </c>
-      <c r="T342" t="s">
+      <c r="U342" t="s">
         <v>3812</v>
       </c>
-      <c r="U342" t="s">
+      <c r="V342" t="s">
         <v>3813</v>
       </c>
-      <c r="V342" t="s">
+    </row>
+    <row r="343" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
         <v>3814</v>
-      </c>
-    </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>3815</v>
       </c>
       <c r="B343" t="s">
         <v>1299</v>
@@ -36086,7 +36085,7 @@
         <v>109</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="K343" t="s">
         <v>128</v>
@@ -36101,7 +36100,7 @@
         <v>43922</v>
       </c>
       <c r="O343" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="R343" t="s">
         <v>1305</v>
@@ -36116,18 +36115,18 @@
         <v>1308</v>
       </c>
       <c r="W343" t="s">
+        <v>3817</v>
+      </c>
+      <c r="X343" t="s">
         <v>3818</v>
       </c>
-      <c r="X343" t="s">
+    </row>
+    <row r="344" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
         <v>3819</v>
       </c>
-    </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+      <c r="B344" t="s">
         <v>3820</v>
-      </c>
-      <c r="B344" t="s">
-        <v>3821</v>
       </c>
       <c r="C344">
         <v>1283</v>
@@ -36136,13 +36135,13 @@
         <v>26</v>
       </c>
       <c r="E344" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F344" t="s">
         <v>3822</v>
       </c>
-      <c r="F344" t="s">
-        <v>3823</v>
-      </c>
       <c r="G344" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="H344" t="s">
         <v>292</v>
@@ -36151,7 +36150,7 @@
         <v>293</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="K344" t="s">
         <v>47</v>
@@ -36166,36 +36165,36 @@
         <v>43922</v>
       </c>
       <c r="O344" t="s">
+        <v>3824</v>
+      </c>
+      <c r="Q344" t="s">
         <v>3825</v>
       </c>
-      <c r="Q344" t="s">
+      <c r="R344" t="s">
         <v>3826</v>
       </c>
-      <c r="R344" t="s">
+      <c r="S344" t="s">
         <v>3827</v>
       </c>
-      <c r="S344" t="s">
+      <c r="U344" t="s">
         <v>3828</v>
       </c>
-      <c r="U344" t="s">
+      <c r="V344" t="s">
         <v>3829</v>
       </c>
-      <c r="V344" t="s">
+      <c r="W344" s="1" t="s">
         <v>3830</v>
       </c>
-      <c r="W344" s="1" t="s">
+      <c r="X344" t="s">
         <v>3831</v>
       </c>
-      <c r="X344" t="s">
+    </row>
+    <row r="345" spans="1:24" ht="323" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
         <v>3832</v>
       </c>
-    </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+      <c r="B345" t="s">
         <v>3833</v>
-      </c>
-      <c r="B345" t="s">
-        <v>3834</v>
       </c>
       <c r="C345">
         <v>1136</v>
@@ -36204,22 +36203,22 @@
         <v>26</v>
       </c>
       <c r="E345" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F345" t="s">
         <v>3835</v>
       </c>
-      <c r="F345" t="s">
+      <c r="G345" t="s">
+        <v>3833</v>
+      </c>
+      <c r="H345" t="s">
         <v>3836</v>
-      </c>
-      <c r="G345" t="s">
-        <v>3834</v>
-      </c>
-      <c r="H345" t="s">
-        <v>3837</v>
       </c>
       <c r="I345" t="s">
         <v>78</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="K345" t="s">
         <v>794</v>
@@ -36234,39 +36233,39 @@
         <v>43923</v>
       </c>
       <c r="O345" t="s">
+        <v>3838</v>
+      </c>
+      <c r="P345" t="s">
         <v>3839</v>
       </c>
-      <c r="P345" t="s">
+      <c r="Q345" t="s">
         <v>3840</v>
       </c>
-      <c r="Q345" t="s">
+      <c r="R345" t="s">
         <v>3841</v>
       </c>
-      <c r="R345" t="s">
+      <c r="S345" t="s">
         <v>3842</v>
       </c>
-      <c r="S345" t="s">
+      <c r="T345" t="s">
         <v>3843</v>
       </c>
-      <c r="T345" t="s">
+      <c r="U345" t="s">
         <v>3844</v>
       </c>
-      <c r="U345" t="s">
+      <c r="V345" t="s">
         <v>3845</v>
       </c>
-      <c r="V345" t="s">
+      <c r="W345" t="s">
         <v>3846</v>
       </c>
-      <c r="W345" t="s">
+    </row>
+    <row r="346" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
         <v>3847</v>
       </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+      <c r="B346" t="s">
         <v>3848</v>
-      </c>
-      <c r="B346" t="s">
-        <v>3849</v>
       </c>
       <c r="C346">
         <v>1823</v>
@@ -36275,13 +36274,13 @@
         <v>42</v>
       </c>
       <c r="E346" t="s">
+        <v>3849</v>
+      </c>
+      <c r="F346" t="s">
         <v>3850</v>
       </c>
-      <c r="F346" t="s">
-        <v>3851</v>
-      </c>
       <c r="G346" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="H346" t="s">
         <v>1639</v>
@@ -36290,7 +36289,7 @@
         <v>63</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="K346" t="s">
         <v>1167</v>
@@ -36305,27 +36304,27 @@
         <v>43922</v>
       </c>
       <c r="O346" t="s">
+        <v>3852</v>
+      </c>
+      <c r="P346" t="s">
         <v>3853</v>
       </c>
-      <c r="P346" t="s">
+      <c r="R346" s="1" t="s">
         <v>3854</v>
       </c>
-      <c r="R346" s="1" t="s">
+      <c r="S346" t="s">
         <v>3855</v>
       </c>
-      <c r="S346" t="s">
+      <c r="W346" s="1" t="s">
         <v>3856</v>
       </c>
-      <c r="W346" s="1" t="s">
+      <c r="X346" t="s">
         <v>3857</v>
       </c>
-      <c r="X346" t="s">
+    </row>
+    <row r="347" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
         <v>3858</v>
-      </c>
-    </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>3859</v>
       </c>
       <c r="B347" t="s">
         <v>2244</v>
@@ -36340,7 +36339,7 @@
         <v>2245</v>
       </c>
       <c r="F347" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="G347" t="s">
         <v>2244</v>
@@ -36352,7 +36351,7 @@
         <v>127</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="K347" t="s">
         <v>80</v>
@@ -36391,9 +36390,9 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B348" t="s">
         <v>1687</v>
@@ -36405,10 +36404,10 @@
         <v>26</v>
       </c>
       <c r="E348" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F348" t="s">
         <v>3863</v>
-      </c>
-      <c r="F348" t="s">
-        <v>3864</v>
       </c>
       <c r="G348" t="s">
         <v>1690</v>
@@ -36420,7 +36419,7 @@
         <v>268</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="K348" t="s">
         <v>194</v>
@@ -36444,7 +36443,7 @@
         <v>1694</v>
       </c>
       <c r="R348" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="S348" t="s">
         <v>1696</v>
@@ -36459,18 +36458,18 @@
         <v>1699</v>
       </c>
       <c r="W348" s="1" t="s">
+        <v>3866</v>
+      </c>
+      <c r="X348" t="s">
         <v>3867</v>
       </c>
-      <c r="X348" t="s">
+    </row>
+    <row r="349" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>3868</v>
       </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+      <c r="B349" t="s">
         <v>3869</v>
-      </c>
-      <c r="B349" t="s">
-        <v>3870</v>
       </c>
       <c r="C349">
         <v>1378</v>
@@ -36479,22 +36478,22 @@
         <v>26</v>
       </c>
       <c r="E349" t="s">
+        <v>3870</v>
+      </c>
+      <c r="F349" t="s">
         <v>3871</v>
       </c>
-      <c r="F349" t="s">
+      <c r="G349" t="s">
+        <v>3869</v>
+      </c>
+      <c r="H349" t="s">
         <v>3872</v>
-      </c>
-      <c r="G349" t="s">
-        <v>3870</v>
-      </c>
-      <c r="H349" t="s">
-        <v>3873</v>
       </c>
       <c r="I349" t="s">
         <v>371</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="K349" t="s">
         <v>311</v>
@@ -36509,27 +36508,27 @@
         <v>43921</v>
       </c>
       <c r="O349" t="s">
+        <v>3874</v>
+      </c>
+      <c r="Q349" t="s">
         <v>3875</v>
       </c>
-      <c r="Q349" t="s">
+      <c r="R349" t="s">
         <v>3876</v>
       </c>
-      <c r="R349" t="s">
+      <c r="S349" t="s">
         <v>3877</v>
       </c>
-      <c r="S349" t="s">
+      <c r="T349" t="s">
         <v>3878</v>
       </c>
-      <c r="T349" t="s">
+      <c r="X349" t="s">
         <v>3879</v>
       </c>
-      <c r="X349" t="s">
+    </row>
+    <row r="350" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>3880</v>
-      </c>
-    </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>3881</v>
       </c>
       <c r="B350" t="s">
         <v>59</v>
@@ -36550,13 +36549,13 @@
         <v>59</v>
       </c>
       <c r="H350" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="I350" t="s">
         <v>63</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="K350" t="s">
         <v>65</v>
@@ -36571,30 +36570,30 @@
         <v>43924</v>
       </c>
       <c r="O350" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="P350" t="s">
         <v>67</v>
       </c>
       <c r="Q350" t="s">
+        <v>3884</v>
+      </c>
+      <c r="R350" s="1" t="s">
         <v>3885</v>
       </c>
-      <c r="R350" s="1" t="s">
+      <c r="S350" t="s">
         <v>3886</v>
-      </c>
-      <c r="S350" t="s">
-        <v>3887</v>
       </c>
       <c r="T350" t="s">
         <v>71</v>
       </c>
       <c r="X350" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" ht="221" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>3888</v>
-      </c>
-    </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>3889</v>
       </c>
       <c r="B351" t="s">
         <v>3224</v>
@@ -36648,18 +36647,18 @@
         <v>3231</v>
       </c>
       <c r="S351" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="V351" t="s">
         <v>3233</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B352" t="s">
         <v>3891</v>
-      </c>
-      <c r="B352" t="s">
-        <v>3892</v>
       </c>
       <c r="C352">
         <v>1551</v>
@@ -36668,22 +36667,22 @@
         <v>26</v>
       </c>
       <c r="E352" t="s">
+        <v>3892</v>
+      </c>
+      <c r="F352" t="s">
         <v>3893</v>
       </c>
-      <c r="F352" t="s">
+      <c r="G352" t="s">
+        <v>3891</v>
+      </c>
+      <c r="H352" t="s">
         <v>3894</v>
-      </c>
-      <c r="G352" t="s">
-        <v>3892</v>
-      </c>
-      <c r="H352" t="s">
-        <v>3895</v>
       </c>
       <c r="I352" t="s">
         <v>127</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="K352" t="s">
         <v>619</v>
@@ -36698,30 +36697,30 @@
         <v>43922</v>
       </c>
       <c r="O352" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="Q352" t="s">
         <v>3897</v>
       </c>
-      <c r="Q352" t="s">
+      <c r="R352" t="s">
         <v>3898</v>
       </c>
-      <c r="R352" t="s">
+      <c r="S352" t="s">
         <v>3899</v>
       </c>
-      <c r="S352" t="s">
+      <c r="T352" t="s">
         <v>3900</v>
       </c>
-      <c r="T352" t="s">
+      <c r="V352" t="s">
         <v>3901</v>
       </c>
-      <c r="V352" t="s">
+    </row>
+    <row r="353" spans="1:24" ht="306" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>3902</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>3903</v>
-      </c>
       <c r="B353" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="C353">
         <v>1246</v>
@@ -36730,22 +36729,22 @@
         <v>26</v>
       </c>
       <c r="E353" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F353" t="s">
         <v>3672</v>
       </c>
-      <c r="F353" t="s">
+      <c r="G353" t="s">
+        <v>3670</v>
+      </c>
+      <c r="H353" t="s">
         <v>3673</v>
-      </c>
-      <c r="G353" t="s">
-        <v>3671</v>
-      </c>
-      <c r="H353" t="s">
-        <v>3674</v>
       </c>
       <c r="I353" t="s">
         <v>78</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="K353" t="s">
         <v>111</v>
@@ -36760,30 +36759,30 @@
         <v>43923</v>
       </c>
       <c r="O353" t="s">
+        <v>3676</v>
+      </c>
+      <c r="P353" t="s">
         <v>3677</v>
       </c>
-      <c r="P353" t="s">
-        <v>3678</v>
-      </c>
       <c r="Q353" t="s">
+        <v>3903</v>
+      </c>
+      <c r="R353" t="s">
+        <v>3679</v>
+      </c>
+      <c r="S353" t="s">
+        <v>3680</v>
+      </c>
+      <c r="V353" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" ht="306" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>3904</v>
       </c>
-      <c r="R353" t="s">
-        <v>3680</v>
-      </c>
-      <c r="S353" t="s">
-        <v>3681</v>
-      </c>
-      <c r="V353" t="s">
-        <v>3682</v>
-      </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>3905</v>
-      </c>
       <c r="B354" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="C354">
         <v>1246</v>
@@ -36792,28 +36791,28 @@
         <v>26</v>
       </c>
       <c r="E354" t="s">
+        <v>3671</v>
+      </c>
+      <c r="F354" t="s">
         <v>3672</v>
       </c>
-      <c r="F354" t="s">
+      <c r="G354" t="s">
+        <v>3670</v>
+      </c>
+      <c r="H354" t="s">
         <v>3673</v>
       </c>
-      <c r="G354" t="s">
-        <v>3671</v>
-      </c>
-      <c r="H354" t="s">
-        <v>3674</v>
-      </c>
       <c r="I354" t="s">
+        <v>3905</v>
+      </c>
+      <c r="J354" s="1" t="s">
         <v>3906</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>3907</v>
       </c>
       <c r="K354" t="s">
         <v>111</v>
       </c>
       <c r="L354" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M354" t="s">
         <v>107</v>
@@ -36822,30 +36821,30 @@
         <v>43923</v>
       </c>
       <c r="O354" t="s">
+        <v>3676</v>
+      </c>
+      <c r="P354" t="s">
         <v>3677</v>
       </c>
-      <c r="P354" t="s">
+      <c r="Q354" t="s">
         <v>3678</v>
       </c>
-      <c r="Q354" t="s">
+      <c r="R354" t="s">
         <v>3679</v>
       </c>
-      <c r="R354" t="s">
+      <c r="S354" t="s">
         <v>3680</v>
       </c>
-      <c r="S354" t="s">
+      <c r="V354" t="s">
         <v>3681</v>
       </c>
-      <c r="V354" t="s">
-        <v>3682</v>
-      </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B355" t="s">
         <v>3909</v>
-      </c>
-      <c r="B355" t="s">
-        <v>3910</v>
       </c>
       <c r="C355">
         <v>1291</v>
@@ -36854,28 +36853,28 @@
         <v>26</v>
       </c>
       <c r="E355" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F355" t="s">
         <v>3911</v>
       </c>
-      <c r="F355" t="s">
+      <c r="G355" t="s">
+        <v>3909</v>
+      </c>
+      <c r="H355" t="s">
         <v>3912</v>
-      </c>
-      <c r="G355" t="s">
-        <v>3910</v>
-      </c>
-      <c r="H355" t="s">
-        <v>3913</v>
       </c>
       <c r="I355" t="s">
         <v>63</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="K355" t="s">
         <v>406</v>
       </c>
       <c r="L355" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M355" t="s">
         <v>609</v>
@@ -36884,33 +36883,33 @@
         <v>43923</v>
       </c>
       <c r="O355" t="s">
+        <v>3915</v>
+      </c>
+      <c r="R355" s="1" t="s">
         <v>3916</v>
       </c>
-      <c r="R355" s="1" t="s">
+      <c r="S355" t="s">
         <v>3917</v>
       </c>
-      <c r="S355" t="s">
+      <c r="T355" t="s">
         <v>3918</v>
       </c>
-      <c r="T355" t="s">
+      <c r="U355" t="s">
         <v>3919</v>
       </c>
-      <c r="U355" t="s">
+      <c r="V355" t="s">
         <v>3920</v>
       </c>
-      <c r="V355" t="s">
+      <c r="X355" t="s">
         <v>3921</v>
       </c>
-      <c r="X355" t="s">
+    </row>
+    <row r="356" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>3922</v>
       </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+      <c r="B356" t="s">
         <v>3923</v>
-      </c>
-      <c r="B356" t="s">
-        <v>3924</v>
       </c>
       <c r="C356">
         <v>1576</v>
@@ -36919,13 +36918,13 @@
         <v>26</v>
       </c>
       <c r="E356" t="s">
+        <v>3924</v>
+      </c>
+      <c r="F356" t="s">
         <v>3925</v>
       </c>
-      <c r="F356" t="s">
-        <v>3926</v>
-      </c>
       <c r="G356" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="H356" t="s">
         <v>3213</v>
@@ -36934,7 +36933,7 @@
         <v>192</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="K356" t="s">
         <v>65</v>
@@ -36949,30 +36948,30 @@
         <v>43924</v>
       </c>
       <c r="O356" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="R356" t="s">
         <v>3928</v>
       </c>
-      <c r="R356" t="s">
+      <c r="S356" t="s">
         <v>3929</v>
       </c>
-      <c r="S356" t="s">
+      <c r="T356" t="s">
         <v>3930</v>
       </c>
-      <c r="T356" t="s">
+      <c r="U356" t="s">
         <v>3931</v>
       </c>
-      <c r="U356" t="s">
+      <c r="V356" t="s">
         <v>3932</v>
       </c>
-      <c r="V356" t="s">
+    </row>
+    <row r="357" spans="1:24" ht="255" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>3933</v>
       </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+      <c r="B357" t="s">
         <v>3934</v>
-      </c>
-      <c r="B357" t="s">
-        <v>3935</v>
       </c>
       <c r="C357">
         <v>1016</v>
@@ -36981,22 +36980,22 @@
         <v>26</v>
       </c>
       <c r="E357" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F357" t="s">
         <v>3936</v>
       </c>
-      <c r="F357" t="s">
+      <c r="G357" t="s">
+        <v>3934</v>
+      </c>
+      <c r="H357" t="s">
         <v>3937</v>
-      </c>
-      <c r="G357" t="s">
-        <v>3935</v>
-      </c>
-      <c r="H357" t="s">
-        <v>3938</v>
       </c>
       <c r="I357" t="s">
         <v>326</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="K357" t="s">
         <v>208</v>
@@ -37011,33 +37010,33 @@
         <v>43924</v>
       </c>
       <c r="O357" t="s">
+        <v>3939</v>
+      </c>
+      <c r="R357" t="s">
         <v>3940</v>
       </c>
-      <c r="R357" t="s">
+      <c r="S357" t="s">
         <v>3941</v>
       </c>
-      <c r="S357" t="s">
+      <c r="U357" t="s">
         <v>3942</v>
       </c>
-      <c r="U357" t="s">
+      <c r="V357" t="s">
         <v>3943</v>
       </c>
-      <c r="V357" t="s">
+      <c r="W357" t="s">
         <v>3944</v>
       </c>
-      <c r="W357" t="s">
+      <c r="X357" t="s">
         <v>3945</v>
       </c>
-      <c r="X357" t="s">
+    </row>
+    <row r="358" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>3946</v>
       </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+      <c r="B358" t="s">
         <v>3947</v>
-      </c>
-      <c r="B358" t="s">
-        <v>3948</v>
       </c>
       <c r="C358">
         <v>1334</v>
@@ -37046,22 +37045,22 @@
         <v>26</v>
       </c>
       <c r="E358" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F358" t="s">
         <v>3949</v>
       </c>
-      <c r="F358" t="s">
+      <c r="G358" t="s">
+        <v>3947</v>
+      </c>
+      <c r="H358" t="s">
         <v>3950</v>
-      </c>
-      <c r="G358" t="s">
-        <v>3948</v>
-      </c>
-      <c r="H358" t="s">
-        <v>3951</v>
       </c>
       <c r="I358" t="s">
         <v>326</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="K358" t="s">
         <v>619</v>
@@ -37076,36 +37075,36 @@
         <v>43834</v>
       </c>
       <c r="O358" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="P358" t="s">
         <v>3953</v>
       </c>
-      <c r="P358" t="s">
+      <c r="Q358" t="s">
         <v>3954</v>
       </c>
-      <c r="Q358" t="s">
+      <c r="R358" t="s">
         <v>3955</v>
       </c>
-      <c r="R358" t="s">
+      <c r="S358" t="s">
         <v>3956</v>
       </c>
-      <c r="S358" t="s">
+      <c r="U358" t="s">
         <v>3957</v>
       </c>
-      <c r="U358" t="s">
+      <c r="W358" t="s">
         <v>3958</v>
       </c>
-      <c r="W358" t="s">
+      <c r="X358" t="s">
         <v>3959</v>
       </c>
-      <c r="X358" t="s">
+    </row>
+    <row r="359" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
         <v>3960</v>
       </c>
-    </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+      <c r="B359" t="s">
         <v>3961</v>
-      </c>
-      <c r="B359" t="s">
-        <v>3962</v>
       </c>
       <c r="C359">
         <v>1910</v>
@@ -37114,22 +37113,22 @@
         <v>42</v>
       </c>
       <c r="E359" t="s">
+        <v>3962</v>
+      </c>
+      <c r="F359" t="s">
         <v>3963</v>
       </c>
-      <c r="F359" t="s">
+      <c r="G359" t="s">
+        <v>3961</v>
+      </c>
+      <c r="H359" t="s">
         <v>3964</v>
-      </c>
-      <c r="G359" t="s">
-        <v>3962</v>
-      </c>
-      <c r="H359" t="s">
-        <v>3965</v>
       </c>
       <c r="I359" t="s">
         <v>63</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="K359" t="s">
         <v>270</v>
@@ -37144,42 +37143,42 @@
         <v>43922</v>
       </c>
       <c r="O359" t="s">
+        <v>3966</v>
+      </c>
+      <c r="P359" t="s">
         <v>3967</v>
       </c>
-      <c r="P359" t="s">
+      <c r="Q359" t="s">
         <v>3968</v>
       </c>
-      <c r="Q359" t="s">
+      <c r="R359" t="s">
         <v>3969</v>
       </c>
-      <c r="R359" t="s">
+      <c r="S359" t="s">
         <v>3970</v>
       </c>
-      <c r="S359" t="s">
+      <c r="T359" t="s">
         <v>3971</v>
       </c>
-      <c r="T359" t="s">
+      <c r="U359" t="s">
         <v>3972</v>
       </c>
-      <c r="U359" t="s">
+      <c r="V359" t="s">
         <v>3973</v>
       </c>
-      <c r="V359" t="s">
+      <c r="W359" t="s">
         <v>3974</v>
       </c>
-      <c r="W359" t="s">
+      <c r="X359" t="s">
         <v>3975</v>
       </c>
-      <c r="X359" t="s">
+    </row>
+    <row r="360" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
         <v>3976</v>
       </c>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="B360" t="s">
         <v>3977</v>
-      </c>
-      <c r="B360" t="s">
-        <v>3978</v>
       </c>
       <c r="C360">
         <v>1312</v>
@@ -37188,22 +37187,22 @@
         <v>26</v>
       </c>
       <c r="E360" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F360" t="s">
         <v>3979</v>
       </c>
-      <c r="F360" t="s">
+      <c r="G360" t="s">
+        <v>3977</v>
+      </c>
+      <c r="H360" t="s">
         <v>3980</v>
-      </c>
-      <c r="G360" t="s">
-        <v>3978</v>
-      </c>
-      <c r="H360" t="s">
-        <v>3981</v>
       </c>
       <c r="I360" t="s">
         <v>2762</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="K360" t="s">
         <v>436</v>
@@ -37212,33 +37211,33 @@
         <v>436</v>
       </c>
       <c r="M360" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="N360" s="2">
         <v>43924</v>
       </c>
       <c r="O360" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="P360" t="s">
         <v>3984</v>
       </c>
-      <c r="P360" t="s">
+      <c r="R360" t="s">
         <v>3985</v>
       </c>
-      <c r="R360" t="s">
+      <c r="S360" t="s">
         <v>3986</v>
       </c>
-      <c r="S360" t="s">
+      <c r="T360" t="s">
         <v>3987</v>
       </c>
-      <c r="T360" t="s">
+    </row>
+    <row r="361" spans="1:24" ht="136" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>3988</v>
       </c>
-    </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+      <c r="B361" t="s">
         <v>3989</v>
-      </c>
-      <c r="B361" t="s">
-        <v>3990</v>
       </c>
       <c r="C361">
         <v>1739</v>
@@ -37247,22 +37246,22 @@
         <v>42</v>
       </c>
       <c r="E361" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F361" t="s">
         <v>3991</v>
       </c>
-      <c r="F361" t="s">
+      <c r="G361" t="s">
+        <v>3989</v>
+      </c>
+      <c r="H361" t="s">
         <v>3992</v>
-      </c>
-      <c r="G361" t="s">
-        <v>3990</v>
-      </c>
-      <c r="H361" t="s">
-        <v>3993</v>
       </c>
       <c r="I361" t="s">
         <v>2933</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="K361" t="s">
         <v>111</v>
@@ -37277,33 +37276,33 @@
         <v>43922</v>
       </c>
       <c r="O361" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="P361">
         <v>4</v>
       </c>
       <c r="R361" t="s">
+        <v>3995</v>
+      </c>
+      <c r="S361" t="s">
         <v>3996</v>
       </c>
-      <c r="S361" t="s">
+      <c r="U361" t="s">
         <v>3997</v>
       </c>
-      <c r="U361" t="s">
+      <c r="V361" t="s">
         <v>3998</v>
       </c>
-      <c r="V361" t="s">
+      <c r="W361" t="s">
         <v>3999</v>
       </c>
-      <c r="W361" t="s">
+      <c r="X361" t="s">
         <v>4000</v>
       </c>
-      <c r="X361" t="s">
+    </row>
+    <row r="362" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>4001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>4002</v>
       </c>
       <c r="B362" t="s">
         <v>1786</v>
@@ -37315,7 +37314,7 @@
         <v>26</v>
       </c>
       <c r="E362" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="F362" t="s">
         <v>1788</v>
@@ -37324,13 +37323,13 @@
         <v>1786</v>
       </c>
       <c r="H362" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="I362" t="s">
         <v>2947</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="K362" t="s">
         <v>65</v>
@@ -37339,27 +37338,27 @@
         <v>1792</v>
       </c>
       <c r="M362" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="N362" s="2">
         <v>43924</v>
       </c>
       <c r="O362" s="1" t="s">
+        <v>4006</v>
+      </c>
+      <c r="R362" t="s">
         <v>4007</v>
-      </c>
-      <c r="R362" t="s">
-        <v>4008</v>
       </c>
       <c r="S362" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B363" t="s">
         <v>4009</v>
-      </c>
-      <c r="B363" t="s">
-        <v>4010</v>
       </c>
       <c r="C363">
         <v>1790</v>
@@ -37368,22 +37367,22 @@
         <v>42</v>
       </c>
       <c r="E363" t="s">
+        <v>4010</v>
+      </c>
+      <c r="F363" t="s">
         <v>4011</v>
       </c>
-      <c r="F363" t="s">
+      <c r="G363" t="s">
         <v>4012</v>
       </c>
-      <c r="G363" t="s">
+      <c r="H363" t="s">
         <v>4013</v>
-      </c>
-      <c r="H363" t="s">
-        <v>4014</v>
       </c>
       <c r="I363" t="s">
         <v>2167</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="K363" t="s">
         <v>1481</v>
@@ -37398,39 +37397,39 @@
         <v>43922</v>
       </c>
       <c r="O363" t="s">
+        <v>4015</v>
+      </c>
+      <c r="P363" t="s">
         <v>4016</v>
       </c>
-      <c r="P363" t="s">
+      <c r="Q363" t="s">
         <v>4017</v>
       </c>
-      <c r="Q363" t="s">
+      <c r="R363" t="s">
         <v>4018</v>
       </c>
-      <c r="R363" t="s">
+      <c r="S363" t="s">
         <v>4019</v>
       </c>
-      <c r="S363" t="s">
+      <c r="U363" t="s">
         <v>4020</v>
       </c>
-      <c r="U363" t="s">
+      <c r="V363" t="s">
         <v>4021</v>
       </c>
-      <c r="V363" t="s">
+      <c r="W363" t="s">
         <v>4022</v>
       </c>
-      <c r="W363" t="s">
+      <c r="X363" t="s">
         <v>4023</v>
       </c>
-      <c r="X363" t="s">
+    </row>
+    <row r="364" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>4024</v>
       </c>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+      <c r="B364" t="s">
         <v>4025</v>
-      </c>
-      <c r="B364" t="s">
-        <v>4026</v>
       </c>
       <c r="C364">
         <v>1851</v>
@@ -37439,22 +37438,22 @@
         <v>26</v>
       </c>
       <c r="E364" t="s">
+        <v>4026</v>
+      </c>
+      <c r="F364" t="s">
         <v>4027</v>
       </c>
-      <c r="F364" t="s">
-        <v>4028</v>
-      </c>
       <c r="G364" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="H364" t="s">
         <v>1667</v>
       </c>
       <c r="I364" t="s">
+        <v>4028</v>
+      </c>
+      <c r="J364" s="1" t="s">
         <v>4029</v>
-      </c>
-      <c r="J364" s="1" t="s">
-        <v>4030</v>
       </c>
       <c r="K364" t="s">
         <v>1434</v>
@@ -37469,30 +37468,30 @@
         <v>43923</v>
       </c>
       <c r="O364" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="P364" t="s">
         <v>4031</v>
       </c>
-      <c r="P364" t="s">
+      <c r="Q364" t="s">
         <v>4032</v>
       </c>
-      <c r="Q364" t="s">
+      <c r="R364" t="s">
         <v>4033</v>
       </c>
-      <c r="R364" t="s">
+      <c r="S364" t="s">
         <v>4034</v>
       </c>
-      <c r="S364" t="s">
+      <c r="V364" t="s">
         <v>4035</v>
-      </c>
-      <c r="V364" t="s">
-        <v>4036</v>
       </c>
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B365" t="s">
         <v>4037</v>
-      </c>
-      <c r="B365" t="s">
-        <v>4038</v>
       </c>
       <c r="C365">
         <v>1717</v>
@@ -37501,22 +37500,22 @@
         <v>26</v>
       </c>
       <c r="E365" t="s">
+        <v>4038</v>
+      </c>
+      <c r="F365" t="s">
         <v>4039</v>
       </c>
-      <c r="F365" t="s">
+      <c r="G365" t="s">
+        <v>4037</v>
+      </c>
+      <c r="H365" t="s">
         <v>4040</v>
-      </c>
-      <c r="G365" t="s">
-        <v>4038</v>
-      </c>
-      <c r="H365" t="s">
-        <v>4041</v>
       </c>
       <c r="I365" t="s">
         <v>78</v>
       </c>
       <c r="J365" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="K365" t="s">
         <v>270</v>
@@ -37525,37 +37524,37 @@
         <v>270</v>
       </c>
       <c r="M365" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="N365" s="2">
         <v>43921</v>
       </c>
       <c r="O365" t="s">
+        <v>4042</v>
+      </c>
+      <c r="P365" t="s">
         <v>4043</v>
       </c>
-      <c r="P365" t="s">
+      <c r="Q365" t="s">
         <v>4044</v>
       </c>
-      <c r="Q365" t="s">
+      <c r="R365" t="s">
         <v>4045</v>
       </c>
-      <c r="R365" t="s">
+      <c r="S365" t="s">
         <v>4046</v>
       </c>
-      <c r="S365" t="s">
+      <c r="U365" t="s">
         <v>4047</v>
       </c>
-      <c r="U365" t="s">
+      <c r="V365" t="s">
         <v>4048</v>
       </c>
-      <c r="V365" t="s">
+      <c r="W365" t="s">
         <v>4049</v>
       </c>
-      <c r="W365" t="s">
+      <c r="X365" t="s">
         <v>4050</v>
-      </c>
-      <c r="X365" t="s">
-        <v>4051</v>
       </c>
     </row>
   </sheetData>

--- a/app-server/src/main/resources/presentations_responses.xlsx
+++ b/app-server/src/main/resources/presentations_responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F826F-7D15-794E-9B1B-FEFECD3A995D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD6AEA-D85F-F546-B042-4ACF7CC1D782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACM SAC 2020 presentation submi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="4051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="4079">
   <si>
     <t>Timestamp</t>
   </si>
@@ -13939,6 +13939,100 @@
   </si>
   <si>
     <t>https://www.lri.fr/~sais/img/myph/me-oct-2019.jpg</t>
+  </si>
+  <si>
+    <t>2020/03/30 1:10:13 PM EST</t>
+  </si>
+  <si>
+    <t>2020/03/30 1:29:46 PM EST</t>
+  </si>
+  <si>
+    <t>Debiased Offline Evaluation of Recommender Systems: A Weighted-Sampling Approach</t>
+  </si>
+  <si>
+    <t>Offline evaluation of recommender systems mostly relies on historical data, which is often biased by many confounders. In such data, user-item interactions are Missing Not At Random (MNAR). Measures of recommender system performance on MNAR test data are unlikely to be reliable indicators of real-world performance unless something is done to mitigate the bias. One way that researchers try to obtain less biased offline evaluation is by designing new supposedly unbiased performance estimators for use on MNAR test data. We investigate an alternative solution, a sampling approach. The general idea is to use a sampling strategy on MNAR data to generate an intervened test set with less bias --- one in which interactions are Missing At Random (MAR) or, at least, one that is more MAR-like. An example of this is SKEW, a sampling strategy that aims to adjust for the confounding effect that an item's popularity has on its likelihood of being observed. 
+In this paper, we propose a novel formulation for the sampling approach. We compare our solution to SKEW and to two baselines which perform a random intervention on MNAR data (and hence are equivalent to no intervention in practice). We empirically validate for the first time the effectiveness of SKEW and we show our approach to be a better estimator of the performance one would obtain on (unbiased) MAR test data. Our strategy benefits from high generality properties (e.g. it can also be employed for training a recommender) and low overheads (e.g. it does not require any learning).</t>
+  </si>
+  <si>
+    <t>2020/03/30 1:58:01 PM EST</t>
+  </si>
+  <si>
+    <t>hana.rhim@supcom.tn</t>
+  </si>
+  <si>
+    <t>A Secure Network Coding-enabled approach for a confidential cluster-based Routing in wireless sensor networks</t>
+  </si>
+  <si>
+    <t>Hana Rhim</t>
+  </si>
+  <si>
+    <t>Digital Security Lab, Sup'Com, University of Carthage</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Ryma Abassi ; Digital Security Lab, Sup'Com, University of Carthage, Tunisia
+Karim Tamine; MathIS, XLIM, (UMR CNRS 7252/University of Limoges), France
+Damien Sauveron; MathIS, XLIM, (UMR CNRS 7252/University of Limoges), France
+Sihem Guemara; Digital Security Lab, Sup'Com, University of Carthage, Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo√£o Leit√£o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless sensor networks (WSNs) face some security issues when transmitting data to the base station as these networks involve resources scarcity that needs to be tackled in the routing protocols.
+More specifically, collected and distributed data are only profitable if their confidentiality is guaranteed. Lately, some approaches have used network coding properties to comply with confidentiality issues. This paper proposes a Secure Network Coding-enabled approach for a confidential cluster-based Routing (SNCR) protocol in wireless sensor networks. It aims to thwart eavesdropping attacks and minimize energy dissipation within a clustered network. Our scheme uses the transmission of a single digit instead of all encoding coefficients, which reduces the communication overheads in the network. Confidentiality investigations and protocol discussions show that SNCR provides a countermeasure to eavesdropping attacks and ensures a compromise between security and the energy efficiency of data transmission in a multi-hop routing scheme.
+</t>
+  </si>
+  <si>
+    <t>This work is supported by the ex-R√©gion Limousin, under grant forproject ‚ÄúIoTSec‚Äù, by the MIRES research federation under grantsfor project ‚ÄúSPOCK2‚Äù, by the R√©gion Nouvelle-Aquitaine underthe grant for project ‚ÄúSVP-IoT‚Äù and by the ID-Fix project, an ANRfunded project (ANR-16-CE39-0004)</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/x1p_d8g0ahk" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DLbLdpNhuQVA-ib9zVHNOdePWAnotaB-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ewyOJh1HZ4Z1MWK76ARHNH-UuSuaCeyF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2020/03/30 2:01:00 PM EST</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/NHKG6uQMvNE" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14Wk3l8ZwfSlydSJMW6OjEp5oeIpAB8SD</t>
+  </si>
+  <si>
+    <t>2020/03/30 2:47:27 PM EST</t>
+  </si>
+  <si>
+    <t>Tiago Brasileiro Araujo</t>
+  </si>
+  <si>
+    <t>UFCG</t>
+  </si>
+  <si>
+    <t>Tiago Brasileiro Araujo, Federal University of Campina Grande
+Kostas Stefanidis, Tampere University
+Carlos Eduardo Santos Pires, Federal University of Campina Grande
+Jyrki Nummenmaa, Tampere University
+Thiago Pereira da N√≥brega, State University of Para√≠ba</t>
+  </si>
+  <si>
+    <t>Currently, a wide number of information systems produce a large amount of data continuously. Since these sources may have overlapping knowledge, the Entity Resolution (ER) task emerges as a fundamental step to integrate multiple knowledge bases or identify similarities between entities. Considering the quadratic cost of the ER task, blocking techniques are often used to improve efficiency. Such techniques face two main challenges related to data volume (i.e., large data sources) and variety (i.e., heterogeneous data). Besides these challenges, blocking techniques also face two other ones: streaming data and incremental processing. To address these four challenges simultaneously, we propose PI-Block, a novel incremental schema-agnostic blocking technique that utilizes parallelism (through distributed computational infrastructure) to enhance blocking efficiency. In our experimental evaluation, we use four real-world data source pairs, and highlight that PI-Block achieves better results regarding efficiency and effectiveness compared to the state-of-the-art technique.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="726" height="409" src="https://www.youtube.com/embed/AYwmVrvsGSY" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mrAwyZLAieTtx9NVVzzu87pcUzNfALuN/view</t>
   </si>
 </sst>
 </file>
@@ -14784,10 +14878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X365"/>
+  <dimension ref="A1:X370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15333,7 +15427,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -15463,7 +15557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -15649,7 +15743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -15708,7 +15802,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -15779,7 +15873,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -16355,7 +16449,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>386</v>
       </c>
@@ -16733,7 +16827,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>477</v>
       </c>
@@ -16869,7 +16963,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>499</v>
       </c>
@@ -16925,7 +17019,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -17034,7 +17128,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>536</v>
       </c>
@@ -17143,7 +17237,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>561</v>
       </c>
@@ -17199,7 +17293,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>573</v>
       </c>
@@ -17317,7 +17411,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>597</v>
       </c>
@@ -17429,7 +17523,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>613</v>
       </c>
@@ -17491,7 +17585,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>628</v>
       </c>
@@ -17603,7 +17697,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>651</v>
       </c>
@@ -17677,7 +17771,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>668</v>
       </c>
@@ -18061,7 +18155,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>734</v>
       </c>
@@ -18676,7 +18770,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>831</v>
       </c>
@@ -19030,7 +19124,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>891</v>
       </c>
@@ -19142,7 +19236,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>915</v>
       </c>
@@ -19201,7 +19295,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>926</v>
       </c>
@@ -19727,7 +19821,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1043</v>
       </c>
@@ -20339,7 +20433,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1176</v>
       </c>
@@ -20451,7 +20545,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1201</v>
       </c>
@@ -20631,7 +20725,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1236</v>
       </c>
@@ -20696,7 +20790,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1248</v>
       </c>
@@ -21000,7 +21094,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1311</v>
       </c>
@@ -21115,7 +21209,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1334</v>
       </c>
@@ -21484,7 +21578,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1385</v>
       </c>
@@ -21614,7 +21708,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1401</v>
       </c>
@@ -21738,7 +21832,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1428</v>
       </c>
@@ -22184,7 +22278,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1517</v>
       </c>
@@ -22438,7 +22532,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1566</v>
       </c>
@@ -23076,7 +23170,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1702</v>
       </c>
@@ -23197,7 +23291,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1725</v>
       </c>
@@ -23377,7 +23471,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1761</v>
       </c>
@@ -23436,7 +23530,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1774</v>
       </c>
@@ -23610,7 +23704,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1811</v>
       </c>
@@ -23976,7 +24070,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1872</v>
       </c>
@@ -24292,7 +24386,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1940</v>
       </c>
@@ -24422,7 +24516,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1965</v>
       </c>
@@ -24534,7 +24628,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1985</v>
       </c>
@@ -24776,7 +24870,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2035</v>
       </c>
@@ -25083,7 +25177,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2096</v>
       </c>
@@ -25396,7 +25490,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2162</v>
       </c>
@@ -25452,7 +25546,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2172</v>
       </c>
@@ -25570,7 +25664,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2194</v>
       </c>
@@ -25679,7 +25773,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2215</v>
       </c>
@@ -25747,7 +25841,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2229</v>
       </c>
@@ -25948,7 +26042,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2271</v>
       </c>
@@ -26323,7 +26417,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2346</v>
       </c>
@@ -26385,7 +26479,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2358</v>
       </c>
@@ -26639,7 +26733,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2398</v>
       </c>
@@ -26834,7 +26928,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2422</v>
       </c>
@@ -26955,7 +27049,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2446</v>
       </c>
@@ -27188,7 +27282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2480</v>
       </c>
@@ -27247,7 +27341,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2492</v>
       </c>
@@ -27368,7 +27462,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2501</v>
       </c>
@@ -27923,7 +28017,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2570</v>
       </c>
@@ -28221,7 +28315,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2627</v>
       </c>
@@ -28295,7 +28389,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2631</v>
       </c>
@@ -28850,7 +28944,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2709</v>
       </c>
@@ -28962,7 +29056,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2723</v>
       </c>
@@ -30378,7 +30472,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2913</v>
       </c>
@@ -30644,7 +30738,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2962</v>
       </c>
@@ -30916,7 +31010,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>3009</v>
       </c>
@@ -31170,7 +31264,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>3051</v>
       </c>
@@ -31294,7 +31388,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>3077</v>
       </c>
@@ -31663,7 +31757,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>3131</v>
       </c>
@@ -32153,7 +32247,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>3209</v>
       </c>
@@ -32513,7 +32607,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>3261</v>
       </c>
@@ -33012,7 +33106,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>3333</v>
       </c>
@@ -33688,7 +33782,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3437</v>
       </c>
@@ -34060,7 +34154,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3498</v>
       </c>
@@ -34166,7 +34260,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>3519</v>
       </c>
@@ -34352,7 +34446,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>3557</v>
       </c>
@@ -34405,7 +34499,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>3567</v>
       </c>
@@ -37555,6 +37649,316 @@
       </c>
       <c r="X365" t="s">
         <v>4050</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" ht="323" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C366">
+        <v>1136</v>
+      </c>
+      <c r="D366" t="s">
+        <v>26</v>
+      </c>
+      <c r="E366" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F366" t="s">
+        <v>3835</v>
+      </c>
+      <c r="G366" t="s">
+        <v>3833</v>
+      </c>
+      <c r="H366" t="s">
+        <v>3836</v>
+      </c>
+      <c r="I366" t="s">
+        <v>78</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="K366" t="s">
+        <v>794</v>
+      </c>
+      <c r="L366" t="s">
+        <v>794</v>
+      </c>
+      <c r="M366" t="s">
+        <v>1470</v>
+      </c>
+      <c r="N366" s="2">
+        <v>43923</v>
+      </c>
+      <c r="O366" t="s">
+        <v>3838</v>
+      </c>
+      <c r="P366" t="s">
+        <v>3839</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>3840</v>
+      </c>
+      <c r="R366" t="s">
+        <v>3841</v>
+      </c>
+      <c r="S366" t="s">
+        <v>3842</v>
+      </c>
+      <c r="T366" t="s">
+        <v>3843</v>
+      </c>
+      <c r="U366" t="s">
+        <v>3844</v>
+      </c>
+      <c r="V366" t="s">
+        <v>3845</v>
+      </c>
+      <c r="W366" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B367" t="s">
+        <v>706</v>
+      </c>
+      <c r="C367">
+        <v>1194</v>
+      </c>
+      <c r="D367" t="s">
+        <v>26</v>
+      </c>
+      <c r="E367" t="s">
+        <v>4053</v>
+      </c>
+      <c r="F367" t="s">
+        <v>708</v>
+      </c>
+      <c r="G367" t="s">
+        <v>706</v>
+      </c>
+      <c r="H367" t="s">
+        <v>709</v>
+      </c>
+      <c r="I367" t="s">
+        <v>109</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="K367" t="s">
+        <v>529</v>
+      </c>
+      <c r="L367" t="s">
+        <v>530</v>
+      </c>
+      <c r="M367" t="s">
+        <v>531</v>
+      </c>
+      <c r="N367" s="2">
+        <v>43922</v>
+      </c>
+      <c r="O367" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="P367" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>714</v>
+      </c>
+      <c r="R367" t="s">
+        <v>715</v>
+      </c>
+      <c r="S367" t="s">
+        <v>3332</v>
+      </c>
+      <c r="U367" t="s">
+        <v>717</v>
+      </c>
+      <c r="V367" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C368">
+        <v>1490</v>
+      </c>
+      <c r="D368" t="s">
+        <v>26</v>
+      </c>
+      <c r="E368" t="s">
+        <v>4057</v>
+      </c>
+      <c r="F368" t="s">
+        <v>4058</v>
+      </c>
+      <c r="G368" t="s">
+        <v>4056</v>
+      </c>
+      <c r="H368" t="s">
+        <v>4059</v>
+      </c>
+      <c r="I368" t="s">
+        <v>4060</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L368" t="s">
+        <v>2645</v>
+      </c>
+      <c r="M368" t="s">
+        <v>4062</v>
+      </c>
+      <c r="N368" s="2">
+        <v>43921</v>
+      </c>
+      <c r="O368" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>4064</v>
+      </c>
+      <c r="R368" t="s">
+        <v>4065</v>
+      </c>
+      <c r="S368" t="s">
+        <v>4066</v>
+      </c>
+      <c r="X368" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" ht="306" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B369" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C369">
+        <v>1135</v>
+      </c>
+      <c r="D369" t="s">
+        <v>42</v>
+      </c>
+      <c r="E369" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F369" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G369" t="s">
+        <v>3488</v>
+      </c>
+      <c r="H369" t="s">
+        <v>3491</v>
+      </c>
+      <c r="I369" t="s">
+        <v>127</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="K369" t="s">
+        <v>554</v>
+      </c>
+      <c r="L369" t="s">
+        <v>3792</v>
+      </c>
+      <c r="M369" t="s">
+        <v>4069</v>
+      </c>
+      <c r="N369" s="2">
+        <v>43922</v>
+      </c>
+      <c r="O369" t="s">
+        <v>3495</v>
+      </c>
+      <c r="R369" t="s">
+        <v>4070</v>
+      </c>
+      <c r="S369" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B370" t="s">
+        <v>202</v>
+      </c>
+      <c r="C370">
+        <v>1661</v>
+      </c>
+      <c r="D370" t="s">
+        <v>26</v>
+      </c>
+      <c r="E370" t="s">
+        <v>203</v>
+      </c>
+      <c r="F370" t="s">
+        <v>4073</v>
+      </c>
+      <c r="G370" t="s">
+        <v>202</v>
+      </c>
+      <c r="H370" t="s">
+        <v>4074</v>
+      </c>
+      <c r="I370" t="s">
+        <v>206</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="K370" t="s">
+        <v>208</v>
+      </c>
+      <c r="L370" t="s">
+        <v>209</v>
+      </c>
+      <c r="M370" t="s">
+        <v>210</v>
+      </c>
+      <c r="N370" s="2">
+        <v>43924</v>
+      </c>
+      <c r="O370" t="s">
+        <v>4076</v>
+      </c>
+      <c r="P370" t="s">
+        <v>212</v>
+      </c>
+      <c r="R370" t="s">
+        <v>4077</v>
+      </c>
+      <c r="S370" t="s">
+        <v>4078</v>
+      </c>
+      <c r="T370" t="s">
+        <v>215</v>
+      </c>
+      <c r="V370" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/app-server/src/main/resources/presentations_responses.xlsx
+++ b/app-server/src/main/resources/presentations_responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11A18ED6-75B9-1748-A664-2AE2F04DCE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADAC57-4FA2-0341-B363-493AC2800931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACM SAC 2020 presentation submi" sheetId="1" r:id="rId1"/>
@@ -14070,7 +14070,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -14909,14 +14909,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="P315" sqref="P315"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="G372" sqref="G372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -15125,7 +15129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -15190,7 +15194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -15255,7 +15259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -15391,7 +15395,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -15518,7 +15522,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -15654,7 +15658,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -15710,7 +15714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -15958,7 +15962,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -16017,7 +16021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>277</v>
       </c>
@@ -16070,7 +16074,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>288</v>
       </c>
@@ -16138,7 +16142,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>305</v>
       </c>
@@ -16203,7 +16207,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>321</v>
       </c>
@@ -16271,7 +16275,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>338</v>
       </c>
@@ -16339,7 +16343,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>366</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>400</v>
       </c>
@@ -16608,7 +16612,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>419</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -16732,7 +16736,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>447</v>
       </c>
@@ -16803,7 +16807,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>466</v>
       </c>
@@ -16927,7 +16931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>483</v>
       </c>
@@ -17375,7 +17379,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>583</v>
       </c>
@@ -17499,7 +17503,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -17670,7 +17674,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>641</v>
       </c>
@@ -17856,7 +17860,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>680</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>695</v>
       </c>
@@ -17983,7 +17987,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>705</v>
       </c>
@@ -18308,7 +18312,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>760</v>
       </c>
@@ -18382,7 +18386,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>777</v>
       </c>
@@ -18456,7 +18460,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>786</v>
       </c>
@@ -18530,7 +18534,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>787</v>
       </c>
@@ -18604,7 +18608,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>788</v>
       </c>
@@ -18858,7 +18862,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>842</v>
       </c>
@@ -19100,7 +19104,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>886</v>
       </c>
@@ -19460,7 +19464,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>954</v>
       </c>
@@ -19525,7 +19529,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>971</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>983</v>
       </c>
@@ -19652,7 +19656,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>997</v>
       </c>
@@ -19723,7 +19727,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1013</v>
       </c>
@@ -19785,7 +19789,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1028</v>
       </c>
@@ -19915,7 +19919,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1058</v>
       </c>
@@ -19989,7 +19993,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1076</v>
       </c>
@@ -20045,7 +20049,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1089</v>
       </c>
@@ -20119,7 +20123,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1102</v>
       </c>
@@ -20190,7 +20194,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1118</v>
       </c>
@@ -20264,7 +20268,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1134</v>
       </c>
@@ -20335,7 +20339,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1149</v>
       </c>
@@ -20397,7 +20401,7 @@
         <v>201594643</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1160</v>
       </c>
@@ -20630,7 +20634,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1212</v>
       </c>
@@ -20689,7 +20693,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1223</v>
       </c>
@@ -20878,7 +20882,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1261</v>
       </c>
@@ -20946,7 +20950,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1275</v>
       </c>
@@ -20999,7 +21003,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1284</v>
       </c>
@@ -21058,7 +21062,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1298</v>
       </c>
@@ -21176,7 +21180,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1322</v>
       </c>
@@ -21300,7 +21304,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1346</v>
       </c>
@@ -21362,7 +21366,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1347</v>
       </c>
@@ -21424,7 +21428,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1348</v>
       </c>
@@ -21486,7 +21490,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1360</v>
       </c>
@@ -21551,7 +21555,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1374</v>
       </c>
@@ -21675,7 +21679,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1400</v>
       </c>
@@ -21796,7 +21800,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1415</v>
       </c>
@@ -21923,7 +21927,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1442</v>
       </c>
@@ -21994,7 +21998,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1458</v>
       </c>
@@ -22115,7 +22119,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1475</v>
       </c>
@@ -22189,7 +22193,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1494</v>
       </c>
@@ -22245,7 +22249,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1506</v>
       </c>
@@ -22378,7 +22382,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1531</v>
       </c>
@@ -22694,7 +22698,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1594</v>
       </c>
@@ -22753,7 +22757,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1608</v>
       </c>
@@ -22880,7 +22884,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1634</v>
       </c>
@@ -22939,7 +22943,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1648</v>
       </c>
@@ -23066,7 +23070,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1674</v>
       </c>
@@ -23125,7 +23129,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="356" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1686</v>
       </c>
@@ -23267,7 +23271,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1715</v>
       </c>
@@ -23379,7 +23383,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1737</v>
       </c>
@@ -23618,7 +23622,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1785</v>
       </c>
@@ -23795,7 +23799,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1825</v>
       </c>
@@ -24037,7 +24041,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1871</v>
       </c>
@@ -24170,7 +24174,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" ht="187" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1890</v>
       </c>
@@ -24294,7 +24298,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1914</v>
       </c>
@@ -24353,7 +24357,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1926</v>
       </c>
@@ -24480,7 +24484,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" ht="388" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1953</v>
       </c>
@@ -24604,7 +24608,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1976</v>
       </c>
@@ -24722,7 +24726,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1999</v>
       </c>
@@ -24778,7 +24782,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2011</v>
       </c>
@@ -24831,7 +24835,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2020</v>
       </c>
@@ -24973,7 +24977,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2051</v>
       </c>
@@ -25041,7 +25045,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2063</v>
       </c>
@@ -25153,7 +25157,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2086</v>
       </c>
@@ -25401,7 +25405,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2138</v>
       </c>
@@ -25935,7 +25939,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2243</v>
       </c>
@@ -26003,7 +26007,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2257</v>
       </c>
@@ -26195,7 +26199,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2295</v>
       </c>
@@ -26260,7 +26264,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2311</v>
       </c>
@@ -26387,7 +26391,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2334</v>
       </c>
@@ -26697,7 +26701,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2383</v>
       </c>
@@ -26836,7 +26840,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2414</v>
       </c>
@@ -27143,7 +27147,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2459</v>
       </c>
@@ -27674,7 +27678,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2517</v>
       </c>
@@ -27795,7 +27799,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2541</v>
       </c>
@@ -27854,7 +27858,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2551</v>
       </c>
@@ -27922,7 +27926,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2554</v>
       </c>
@@ -27984,7 +27988,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2568</v>
       </c>
@@ -28492,7 +28496,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2639</v>
       </c>
@@ -28551,7 +28555,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2652</v>
       </c>
@@ -28731,7 +28735,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2682</v>
       </c>
@@ -28796,7 +28800,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2685</v>
       </c>
@@ -28855,7 +28859,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2696</v>
       </c>
@@ -28914,7 +28918,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2707</v>
       </c>
@@ -29150,7 +29154,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2729</v>
       </c>
@@ -29203,7 +29207,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2740</v>
       </c>
@@ -29672,7 +29676,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2789</v>
       </c>
@@ -29734,7 +29738,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2797</v>
       </c>
@@ -29796,7 +29800,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2809</v>
       </c>
@@ -29920,7 +29924,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2835</v>
       </c>
@@ -30029,7 +30033,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2853</v>
       </c>
@@ -30088,7 +30092,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2854</v>
       </c>
@@ -30159,7 +30163,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2859</v>
       </c>
@@ -30327,7 +30331,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2892</v>
       </c>
@@ -30439,7 +30443,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2909</v>
       </c>
@@ -30696,7 +30700,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2955</v>
       </c>
@@ -30832,7 +30836,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2965</v>
       </c>
@@ -30906,7 +30910,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2981</v>
       </c>
@@ -30977,7 +30981,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2997</v>
       </c>
@@ -31095,7 +31099,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>3018</v>
       </c>
@@ -31160,7 +31164,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>3022</v>
       </c>
@@ -31234,7 +31238,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>3039</v>
       </c>
@@ -31588,7 +31592,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>3092</v>
       </c>
@@ -32028,7 +32032,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3166</v>
       </c>
@@ -32081,7 +32085,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>3176</v>
       </c>
@@ -32385,7 +32389,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>3226</v>
       </c>
@@ -32506,7 +32510,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>3241</v>
       </c>
@@ -32624,7 +32628,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>3255</v>
       </c>
@@ -32748,7 +32752,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>3277</v>
       </c>
@@ -32804,7 +32808,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>3284</v>
       </c>
@@ -32875,7 +32879,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>3298</v>
       </c>
@@ -32934,7 +32938,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>3309</v>
       </c>
@@ -33123,7 +33127,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>3340</v>
       </c>
@@ -33253,7 +33257,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>3365</v>
       </c>
@@ -33368,7 +33372,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>3385</v>
       </c>
@@ -33424,7 +33428,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>3396</v>
       </c>
@@ -33480,7 +33484,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>3397</v>
       </c>
@@ -33539,7 +33543,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>3398</v>
       </c>
@@ -33610,7 +33614,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>3415</v>
       </c>
@@ -33817,7 +33821,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3438</v>
       </c>
@@ -33888,7 +33892,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>3453</v>
       </c>
@@ -33947,7 +33951,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" ht="289" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>3464</v>
       </c>
@@ -34003,7 +34007,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" ht="372" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>3473</v>
       </c>
@@ -34168,7 +34172,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3505</v>
       </c>
@@ -34348,7 +34352,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>3541</v>
       </c>
@@ -34516,7 +34520,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>3568</v>
       </c>
@@ -34708,7 +34712,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>3607</v>
       </c>
@@ -34767,7 +34771,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>3618</v>
       </c>
@@ -34841,7 +34845,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>3635</v>
       </c>
@@ -34962,7 +34966,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>3648</v>
       </c>
@@ -35021,7 +35025,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" ht="170" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3651</v>
       </c>
@@ -35216,7 +35220,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>3665</v>
       </c>
@@ -35281,7 +35285,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>3679</v>
       </c>
@@ -35343,7 +35347,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" ht="340" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3692</v>
       </c>
@@ -35408,7 +35412,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>3705</v>
       </c>
@@ -35520,7 +35524,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>3715</v>
       </c>
@@ -35783,7 +35787,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>3748</v>
       </c>
@@ -36111,7 +36115,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>3810</v>
       </c>
@@ -36176,7 +36180,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>3815</v>
       </c>
@@ -36244,7 +36248,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>3828</v>
       </c>
@@ -36306,7 +36310,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>3839</v>
       </c>
@@ -36374,7 +36378,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3842</v>
       </c>
@@ -36448,7 +36452,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>3849</v>
       </c>
@@ -36510,7 +36514,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>3861</v>
       </c>
@@ -36575,7 +36579,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" ht="221" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>3869</v>
       </c>
@@ -36637,7 +36641,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>3871</v>
       </c>
@@ -36699,7 +36703,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>3883</v>
       </c>
@@ -36761,7 +36765,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>3885</v>
       </c>
@@ -36823,7 +36827,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" ht="404" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>3889</v>
       </c>
@@ -36888,7 +36892,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>3903</v>
       </c>
@@ -36950,7 +36954,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" ht="255" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>3914</v>
       </c>
@@ -37015,7 +37019,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>3927</v>
       </c>
@@ -37083,7 +37087,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>3941</v>
       </c>
@@ -37157,7 +37161,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>3957</v>
       </c>
@@ -37216,7 +37220,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>3969</v>
       </c>
@@ -37284,7 +37288,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>3982</v>
       </c>
@@ -37337,7 +37341,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>3989</v>
       </c>
@@ -37470,7 +37474,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" ht="372" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>4016</v>
       </c>
@@ -37535,7 +37539,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>4020</v>
       </c>
@@ -37606,7 +37610,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" ht="323" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>4023</v>
       </c>
@@ -37677,7 +37681,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>4038</v>
       </c>
@@ -37742,7 +37746,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4041</v>
       </c>
@@ -37801,7 +37805,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" ht="306" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>4054</v>
       </c>
@@ -37854,7 +37858,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>4058</v>
       </c>
@@ -37969,7 +37973,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>4069</v>
       </c>
@@ -38025,7 +38029,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>4073</v>
       </c>
